--- a/5/9/Índice de stress local 2014 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2014 - Diaria.xlsx
@@ -1155,13 +1155,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2476</v>
+        <v>0.3148</v>
       </c>
       <c r="C2">
-        <v>0.0219</v>
+        <v>0.0233</v>
       </c>
       <c r="D2">
-        <v>0.2258</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2485</v>
+        <v>0.316</v>
       </c>
       <c r="C3">
-        <v>0.0215</v>
+        <v>0.023</v>
       </c>
       <c r="D3">
-        <v>0.227</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2494</v>
+        <v>0.3171</v>
       </c>
       <c r="C4">
-        <v>0.0211</v>
+        <v>0.0225</v>
       </c>
       <c r="D4">
-        <v>0.2283</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1197,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.251</v>
+        <v>0.3188</v>
       </c>
       <c r="C5">
-        <v>0.0209</v>
+        <v>0.0223</v>
       </c>
       <c r="D5">
-        <v>0.2302</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2531</v>
+        <v>0.3209</v>
       </c>
       <c r="C6">
-        <v>0.0208</v>
+        <v>0.0222</v>
       </c>
       <c r="D6">
-        <v>0.2323</v>
+        <v>0.2986</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1225,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2549</v>
+        <v>0.3226</v>
       </c>
       <c r="C7">
-        <v>0.0205</v>
+        <v>0.0219</v>
       </c>
       <c r="D7">
-        <v>0.2344</v>
+        <v>0.3007</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2567</v>
+        <v>0.3243</v>
       </c>
       <c r="C8">
-        <v>0.0201</v>
+        <v>0.0215</v>
       </c>
       <c r="D8">
-        <v>0.2366</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2578</v>
+        <v>0.3253</v>
       </c>
       <c r="C9">
-        <v>0.0195</v>
+        <v>0.0208</v>
       </c>
       <c r="D9">
-        <v>0.2384</v>
+        <v>0.3046</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,13 +1267,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.259</v>
+        <v>0.3265</v>
       </c>
       <c r="C10">
-        <v>0.0191</v>
+        <v>0.0204</v>
       </c>
       <c r="D10">
-        <v>0.2399</v>
+        <v>0.3061</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1281,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2598</v>
+        <v>0.3274</v>
       </c>
       <c r="C11">
-        <v>0.0187</v>
+        <v>0.0199</v>
       </c>
       <c r="D11">
-        <v>0.2412</v>
+        <v>0.3074</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1295,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2608</v>
+        <v>0.3285</v>
       </c>
       <c r="C12">
-        <v>0.0187</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.242</v>
+        <v>0.3085</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2618</v>
+        <v>0.3296</v>
       </c>
       <c r="C13">
-        <v>0.0186</v>
+        <v>0.0198</v>
       </c>
       <c r="D13">
-        <v>0.2432</v>
+        <v>0.3097</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1323,13 +1323,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2643</v>
+        <v>0.3322</v>
       </c>
       <c r="C14">
-        <v>0.0197</v>
+        <v>0.021</v>
       </c>
       <c r="D14">
-        <v>0.2446</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2665</v>
+        <v>0.3347</v>
       </c>
       <c r="C15">
-        <v>0.0208</v>
+        <v>0.0221</v>
       </c>
       <c r="D15">
-        <v>0.2458</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1351,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2685</v>
+        <v>0.3369</v>
       </c>
       <c r="C16">
-        <v>0.0216</v>
+        <v>0.0231</v>
       </c>
       <c r="D16">
-        <v>0.2468</v>
+        <v>0.3138</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1365,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2708</v>
+        <v>0.3395</v>
       </c>
       <c r="C17">
-        <v>0.023</v>
+        <v>0.0245</v>
       </c>
       <c r="D17">
-        <v>0.2478</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2735</v>
+        <v>0.3425</v>
       </c>
       <c r="C18">
-        <v>0.0249</v>
+        <v>0.0265</v>
       </c>
       <c r="D18">
-        <v>0.2486</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2763</v>
+        <v>0.3458</v>
       </c>
       <c r="C19">
-        <v>0.0273</v>
+        <v>0.0291</v>
       </c>
       <c r="D19">
-        <v>0.249</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1407,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2778</v>
+        <v>0.3479</v>
       </c>
       <c r="C20">
-        <v>0.0291</v>
+        <v>0.0311</v>
       </c>
       <c r="D20">
-        <v>0.2486</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1421,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2779</v>
+        <v>0.3488</v>
       </c>
       <c r="C21">
-        <v>0.0305</v>
+        <v>0.0325</v>
       </c>
       <c r="D21">
-        <v>0.2475</v>
+        <v>0.3163</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2772</v>
+        <v>0.349</v>
       </c>
       <c r="C22">
-        <v>0.0314</v>
+        <v>0.0336</v>
       </c>
       <c r="D22">
-        <v>0.2458</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1449,13 +1449,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2762</v>
+        <v>0.3491</v>
       </c>
       <c r="C23">
-        <v>0.0325</v>
+        <v>0.0347</v>
       </c>
       <c r="D23">
-        <v>0.2438</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2766</v>
+        <v>0.3505</v>
       </c>
       <c r="C24">
-        <v>0.0342</v>
+        <v>0.0365</v>
       </c>
       <c r="D24">
-        <v>0.2424</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1477,13 +1477,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2775</v>
+        <v>0.3526</v>
       </c>
       <c r="C25">
-        <v>0.0363</v>
+        <v>0.0387</v>
       </c>
       <c r="D25">
-        <v>0.2412</v>
+        <v>0.3138</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1491,13 +1491,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2786</v>
+        <v>0.355</v>
       </c>
       <c r="C26">
-        <v>0.0384</v>
+        <v>0.041</v>
       </c>
       <c r="D26">
-        <v>0.2402</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2804</v>
+        <v>0.3582</v>
       </c>
       <c r="C27">
-        <v>0.041</v>
+        <v>0.0438</v>
       </c>
       <c r="D27">
-        <v>0.2395</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1519,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2823</v>
+        <v>0.3614</v>
       </c>
       <c r="C28">
-        <v>0.0434</v>
+        <v>0.0463</v>
       </c>
       <c r="D28">
-        <v>0.2389</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2839</v>
+        <v>0.3642</v>
       </c>
       <c r="C29">
-        <v>0.045</v>
+        <v>0.0481</v>
       </c>
       <c r="D29">
-        <v>0.2389</v>
+        <v>0.3161</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2873</v>
+        <v>0.3687</v>
       </c>
       <c r="C30">
-        <v>0.0477</v>
+        <v>0.0509</v>
       </c>
       <c r="D30">
-        <v>0.2396</v>
+        <v>0.3177</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2913</v>
+        <v>0.3737</v>
       </c>
       <c r="C31">
-        <v>0.0507</v>
+        <v>0.0542</v>
       </c>
       <c r="D31">
-        <v>0.2406</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2946</v>
+        <v>0.3778</v>
       </c>
       <c r="C32">
-        <v>0.0526</v>
+        <v>0.0562</v>
       </c>
       <c r="D32">
-        <v>0.242</v>
+        <v>0.3216</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1589,13 +1589,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2983</v>
+        <v>0.3823</v>
       </c>
       <c r="C33">
-        <v>0.0549</v>
+        <v>0.0586</v>
       </c>
       <c r="D33">
-        <v>0.2435</v>
+        <v>0.3237</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3013</v>
+        <v>0.3857</v>
       </c>
       <c r="C34">
-        <v>0.0561</v>
+        <v>0.0599</v>
       </c>
       <c r="D34">
-        <v>0.2452</v>
+        <v>0.3258</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1617,13 +1617,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3047</v>
+        <v>0.3894</v>
       </c>
       <c r="C35">
-        <v>0.0574</v>
+        <v>0.0612</v>
       </c>
       <c r="D35">
-        <v>0.2473</v>
+        <v>0.3282</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1631,13 +1631,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3077</v>
+        <v>0.3925</v>
       </c>
       <c r="C36">
-        <v>0.0583</v>
+        <v>0.0622</v>
       </c>
       <c r="D36">
-        <v>0.2494</v>
+        <v>0.3303</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1645,13 +1645,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.311</v>
+        <v>0.3957</v>
       </c>
       <c r="C37">
-        <v>0.0593</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="D37">
-        <v>0.2517</v>
+        <v>0.3325</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3139</v>
+        <v>0.3983</v>
       </c>
       <c r="C38">
-        <v>0.0596</v>
+        <v>0.0636</v>
       </c>
       <c r="D38">
-        <v>0.2542</v>
+        <v>0.3347</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3167</v>
+        <v>0.4007</v>
       </c>
       <c r="C39">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="D39">
-        <v>0.2567</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3204</v>
+        <v>0.4036</v>
       </c>
       <c r="C40">
-        <v>0.0608</v>
+        <v>0.0648</v>
       </c>
       <c r="D40">
-        <v>0.2596</v>
+        <v>0.3388</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3246</v>
+        <v>0.4067</v>
       </c>
       <c r="C41">
-        <v>0.0616</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="D41">
-        <v>0.2629</v>
+        <v>0.3411</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1715,13 +1715,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3289</v>
+        <v>0.4097</v>
       </c>
       <c r="C42">
-        <v>0.0625</v>
+        <v>0.0665</v>
       </c>
       <c r="D42">
-        <v>0.2664</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1729,13 +1729,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3328</v>
+        <v>0.4118</v>
       </c>
       <c r="C43">
-        <v>0.06270000000000001</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D43">
-        <v>0.2701</v>
+        <v>0.3452</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1743,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3362</v>
+        <v>0.4132</v>
       </c>
       <c r="C44">
-        <v>0.0626</v>
+        <v>0.0665</v>
       </c>
       <c r="D44">
-        <v>0.2736</v>
+        <v>0.3467</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1757,13 +1757,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3389</v>
+        <v>0.4136</v>
       </c>
       <c r="C45">
-        <v>0.0623</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D45">
-        <v>0.2766</v>
+        <v>0.3475</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1771,13 +1771,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3411</v>
+        <v>0.4132</v>
       </c>
       <c r="C46">
-        <v>0.0617</v>
+        <v>0.0654</v>
       </c>
       <c r="D46">
-        <v>0.2794</v>
+        <v>0.3479</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1785,13 +1785,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.343</v>
+        <v>0.4123</v>
       </c>
       <c r="C47">
-        <v>0.0611</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D47">
-        <v>0.282</v>
+        <v>0.3476</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1799,13 +1799,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.345</v>
+        <v>0.4114</v>
       </c>
       <c r="C48">
-        <v>0.0609</v>
+        <v>0.0645</v>
       </c>
       <c r="D48">
-        <v>0.2841</v>
+        <v>0.3469</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1813,13 +1813,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3485</v>
+        <v>0.4119</v>
       </c>
       <c r="C49">
-        <v>0.0624</v>
+        <v>0.0659</v>
       </c>
       <c r="D49">
-        <v>0.2861</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1827,13 +1827,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3515</v>
+        <v>0.4116</v>
       </c>
       <c r="C50">
-        <v>0.0631</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D50">
-        <v>0.2884</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1841,13 +1841,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3545</v>
+        <v>0.411</v>
       </c>
       <c r="C51">
-        <v>0.06370000000000001</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D51">
-        <v>0.2908</v>
+        <v>0.3438</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1855,13 +1855,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3576</v>
+        <v>0.4102</v>
       </c>
       <c r="C52">
-        <v>0.0646</v>
+        <v>0.068</v>
       </c>
       <c r="D52">
-        <v>0.293</v>
+        <v>0.3422</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1869,13 +1869,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3601</v>
+        <v>0.4089</v>
       </c>
       <c r="C53">
-        <v>0.06560000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D53">
-        <v>0.2944</v>
+        <v>0.3399</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1883,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3626</v>
+        <v>0.4075</v>
       </c>
       <c r="C54">
-        <v>0.0668</v>
+        <v>0.0701</v>
       </c>
       <c r="D54">
-        <v>0.2958</v>
+        <v>0.3373</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1897,13 +1897,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3646</v>
+        <v>0.4055</v>
       </c>
       <c r="C55">
-        <v>0.06809999999999999</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="D55">
-        <v>0.2965</v>
+        <v>0.3341</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1911,13 +1911,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3668</v>
+        <v>0.4039</v>
       </c>
       <c r="C56">
-        <v>0.0697</v>
+        <v>0.073</v>
       </c>
       <c r="D56">
-        <v>0.2971</v>
+        <v>0.3309</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1925,13 +1925,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.368</v>
+        <v>0.4011</v>
       </c>
       <c r="C57">
-        <v>0.0706</v>
+        <v>0.0738</v>
       </c>
       <c r="D57">
-        <v>0.2974</v>
+        <v>0.3273</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1939,13 +1939,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3685</v>
+        <v>0.3976</v>
       </c>
       <c r="C58">
-        <v>0.0711</v>
+        <v>0.0743</v>
       </c>
       <c r="D58">
-        <v>0.2973</v>
+        <v>0.3234</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1953,13 +1953,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3684</v>
+        <v>0.3938</v>
       </c>
       <c r="C59">
-        <v>0.0716</v>
+        <v>0.0746</v>
       </c>
       <c r="D59">
-        <v>0.2969</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1967,13 +1967,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3672</v>
+        <v>0.3889</v>
       </c>
       <c r="C60">
-        <v>0.07149999999999999</v>
+        <v>0.0745</v>
       </c>
       <c r="D60">
-        <v>0.2957</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1981,13 +1981,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3658</v>
+        <v>0.384</v>
       </c>
       <c r="C61">
-        <v>0.0718</v>
+        <v>0.0747</v>
       </c>
       <c r="D61">
-        <v>0.294</v>
+        <v>0.3093</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1995,13 +1995,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3638</v>
+        <v>0.3787</v>
       </c>
       <c r="C62">
-        <v>0.07199999999999999</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="D62">
-        <v>0.2918</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2009,13 +2009,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3618</v>
+        <v>0.3736</v>
       </c>
       <c r="C63">
-        <v>0.0725</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D63">
-        <v>0.2893</v>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2023,13 +2023,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.359</v>
+        <v>0.3677</v>
       </c>
       <c r="C64">
-        <v>0.0727</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D64">
-        <v>0.2862</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2037,13 +2037,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.356</v>
+        <v>0.3619</v>
       </c>
       <c r="C65">
-        <v>0.073</v>
+        <v>0.0755</v>
       </c>
       <c r="D65">
-        <v>0.283</v>
+        <v>0.2863</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2051,13 +2051,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3526</v>
+        <v>0.3559</v>
       </c>
       <c r="C66">
-        <v>0.0731</v>
+        <v>0.0756</v>
       </c>
       <c r="D66">
-        <v>0.2795</v>
+        <v>0.2803</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3496</v>
+        <v>0.3503</v>
       </c>
       <c r="C67">
-        <v>0.0733</v>
+        <v>0.0757</v>
       </c>
       <c r="D67">
-        <v>0.2763</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2079,13 +2079,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3464</v>
+        <v>0.3445</v>
       </c>
       <c r="C68">
-        <v>0.07290000000000001</v>
+        <v>0.0752</v>
       </c>
       <c r="D68">
-        <v>0.2735</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2093,13 +2093,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3428</v>
+        <v>0.3384</v>
       </c>
       <c r="C69">
-        <v>0.07199999999999999</v>
+        <v>0.0742</v>
       </c>
       <c r="D69">
-        <v>0.2707</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2107,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3373</v>
+        <v>0.3308</v>
       </c>
       <c r="C70">
-        <v>0.0702</v>
+        <v>0.0722</v>
       </c>
       <c r="D70">
-        <v>0.2671</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2121,13 +2121,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3324</v>
+        <v>0.3239</v>
       </c>
       <c r="C71">
-        <v>0.06859999999999999</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="D71">
-        <v>0.2638</v>
+        <v>0.2534</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2135,13 +2135,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3275</v>
+        <v>0.3172</v>
       </c>
       <c r="C72">
-        <v>0.0669</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="D72">
-        <v>0.2606</v>
+        <v>0.2486</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.324</v>
+        <v>0.3122</v>
       </c>
       <c r="C73">
-        <v>0.0659</v>
+        <v>0.0675</v>
       </c>
       <c r="D73">
-        <v>0.2581</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2163,13 +2163,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3201</v>
+        <v>0.3072</v>
       </c>
       <c r="C74">
-        <v>0.0648</v>
+        <v>0.0663</v>
       </c>
       <c r="D74">
-        <v>0.2554</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2177,13 +2177,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3161</v>
+        <v>0.3021</v>
       </c>
       <c r="C75">
-        <v>0.063</v>
+        <v>0.0644</v>
       </c>
       <c r="D75">
-        <v>0.2531</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3121</v>
+        <v>0.2971</v>
       </c>
       <c r="C76">
-        <v>0.061</v>
+        <v>0.0623</v>
       </c>
       <c r="D76">
-        <v>0.251</v>
+        <v>0.2348</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.309</v>
+        <v>0.2934</v>
       </c>
       <c r="C77">
-        <v>0.0597</v>
+        <v>0.0609</v>
       </c>
       <c r="D77">
-        <v>0.2493</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3068</v>
+        <v>0.2907</v>
       </c>
       <c r="C78">
-        <v>0.0589</v>
+        <v>0.06</v>
       </c>
       <c r="D78">
-        <v>0.248</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3045</v>
+        <v>0.288</v>
       </c>
       <c r="C79">
-        <v>0.0575</v>
+        <v>0.0586</v>
       </c>
       <c r="D79">
-        <v>0.247</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3032</v>
+        <v>0.2864</v>
       </c>
       <c r="C80">
-        <v>0.0565</v>
+        <v>0.0576</v>
       </c>
       <c r="D80">
-        <v>0.2466</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3015</v>
+        <v>0.2847</v>
       </c>
       <c r="C81">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="D81">
-        <v>0.2465</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2999</v>
+        <v>0.2833</v>
       </c>
       <c r="C82">
-        <v>0.0534</v>
+        <v>0.0544</v>
       </c>
       <c r="D82">
-        <v>0.2465</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2988</v>
+        <v>0.2825</v>
       </c>
       <c r="C83">
-        <v>0.0519</v>
+        <v>0.0528</v>
       </c>
       <c r="D83">
-        <v>0.2469</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2977</v>
+        <v>0.282</v>
       </c>
       <c r="C84">
-        <v>0.0504</v>
+        <v>0.0513</v>
       </c>
       <c r="D84">
-        <v>0.2473</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2963</v>
+        <v>0.2813</v>
       </c>
       <c r="C85">
-        <v>0.0487</v>
+        <v>0.0496</v>
       </c>
       <c r="D85">
-        <v>0.2476</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2948</v>
+        <v>0.2807</v>
       </c>
       <c r="C86">
-        <v>0.0469</v>
+        <v>0.0478</v>
       </c>
       <c r="D86">
-        <v>0.2479</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2935</v>
+        <v>0.2805</v>
       </c>
       <c r="C87">
-        <v>0.0455</v>
+        <v>0.0464</v>
       </c>
       <c r="D87">
-        <v>0.248</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2924</v>
+        <v>0.2807</v>
       </c>
       <c r="C88">
-        <v>0.0443</v>
+        <v>0.0452</v>
       </c>
       <c r="D88">
-        <v>0.248</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2909</v>
+        <v>0.2805</v>
       </c>
       <c r="C89">
-        <v>0.043</v>
+        <v>0.0438</v>
       </c>
       <c r="D89">
-        <v>0.2479</v>
+        <v>0.2367</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2387,13 +2387,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2899</v>
+        <v>0.2809</v>
       </c>
       <c r="C90">
-        <v>0.042</v>
+        <v>0.0428</v>
       </c>
       <c r="D90">
-        <v>0.2479</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2401,13 +2401,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2893</v>
+        <v>0.2819</v>
       </c>
       <c r="C91">
-        <v>0.0416</v>
+        <v>0.0424</v>
       </c>
       <c r="D91">
-        <v>0.2477</v>
+        <v>0.2394</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2415,13 +2415,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2882</v>
+        <v>0.2824</v>
       </c>
       <c r="C92">
-        <v>0.041</v>
+        <v>0.0419</v>
       </c>
       <c r="D92">
-        <v>0.2472</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2859</v>
+        <v>0.2816</v>
       </c>
       <c r="C93">
-        <v>0.0397</v>
+        <v>0.0406</v>
       </c>
       <c r="D93">
-        <v>0.2462</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2836</v>
+        <v>0.2809</v>
       </c>
       <c r="C94">
-        <v>0.0385</v>
+        <v>0.0394</v>
       </c>
       <c r="D94">
-        <v>0.2451</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2457,13 +2457,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2818</v>
+        <v>0.2808</v>
       </c>
       <c r="C95">
-        <v>0.0382</v>
+        <v>0.0391</v>
       </c>
       <c r="D95">
-        <v>0.2436</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2471,13 +2471,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2795</v>
+        <v>0.2799</v>
       </c>
       <c r="C96">
-        <v>0.0373</v>
+        <v>0.0383</v>
       </c>
       <c r="D96">
-        <v>0.2421</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2485,13 +2485,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2765</v>
+        <v>0.2784</v>
       </c>
       <c r="C97">
-        <v>0.0362</v>
+        <v>0.0372</v>
       </c>
       <c r="D97">
-        <v>0.2403</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2499,13 +2499,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2732</v>
+        <v>0.2766</v>
       </c>
       <c r="C98">
-        <v>0.0351</v>
+        <v>0.036</v>
       </c>
       <c r="D98">
-        <v>0.2382</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.27</v>
+        <v>0.2747</v>
       </c>
       <c r="C99">
-        <v>0.0343</v>
+        <v>0.0352</v>
       </c>
       <c r="D99">
-        <v>0.2357</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2527,13 +2527,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2662</v>
+        <v>0.2724</v>
       </c>
       <c r="C100">
-        <v>0.0333</v>
+        <v>0.0343</v>
       </c>
       <c r="D100">
-        <v>0.2329</v>
+        <v>0.2382</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2541,13 +2541,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2625</v>
+        <v>0.27</v>
       </c>
       <c r="C101">
-        <v>0.0324</v>
+        <v>0.0334</v>
       </c>
       <c r="D101">
-        <v>0.23</v>
+        <v>0.2367</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2593</v>
+        <v>0.2682</v>
       </c>
       <c r="C102">
-        <v>0.0319</v>
+        <v>0.0329</v>
       </c>
       <c r="D102">
-        <v>0.2274</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2561</v>
+        <v>0.2662</v>
       </c>
       <c r="C103">
-        <v>0.0315</v>
+        <v>0.0324</v>
       </c>
       <c r="D103">
-        <v>0.2246</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2583,13 +2583,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2531</v>
+        <v>0.2645</v>
       </c>
       <c r="C104">
-        <v>0.0311</v>
+        <v>0.032</v>
       </c>
       <c r="D104">
-        <v>0.222</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2597,13 +2597,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2505</v>
+        <v>0.2632</v>
       </c>
       <c r="C105">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="D105">
-        <v>0.2195</v>
+        <v>0.2313</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2611,13 +2611,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.248</v>
+        <v>0.2623</v>
       </c>
       <c r="C106">
-        <v>0.0312</v>
+        <v>0.0322</v>
       </c>
       <c r="D106">
-        <v>0.2169</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2625,13 +2625,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.245</v>
+        <v>0.2608</v>
       </c>
       <c r="C107">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="D107">
-        <v>0.2141</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2639,13 +2639,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2416</v>
+        <v>0.2591</v>
       </c>
       <c r="C108">
-        <v>0.0306</v>
+        <v>0.0316</v>
       </c>
       <c r="D108">
-        <v>0.211</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2653,13 +2653,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2384</v>
+        <v>0.2578</v>
       </c>
       <c r="C109">
-        <v>0.0303</v>
+        <v>0.0314</v>
       </c>
       <c r="D109">
-        <v>0.208</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2667,13 +2667,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2358</v>
+        <v>0.2573</v>
       </c>
       <c r="C110">
-        <v>0.0304</v>
+        <v>0.0315</v>
       </c>
       <c r="D110">
-        <v>0.2054</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2681,13 +2681,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2331</v>
+        <v>0.2568</v>
       </c>
       <c r="C111">
-        <v>0.0301</v>
+        <v>0.0313</v>
       </c>
       <c r="D111">
-        <v>0.2029</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2695,13 +2695,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.23</v>
+        <v>0.2561</v>
       </c>
       <c r="C112">
-        <v>0.0294</v>
+        <v>0.0305</v>
       </c>
       <c r="D112">
-        <v>0.2007</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2709,13 +2709,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2268</v>
+        <v>0.2554</v>
       </c>
       <c r="C113">
-        <v>0.0283</v>
+        <v>0.0294</v>
       </c>
       <c r="D113">
-        <v>0.1985</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2723,13 +2723,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2236</v>
+        <v>0.255</v>
       </c>
       <c r="C114">
-        <v>0.0269</v>
+        <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.1967</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2737,13 +2737,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2209</v>
+        <v>0.2553</v>
       </c>
       <c r="C115">
-        <v>0.0257</v>
+        <v>0.0268</v>
       </c>
       <c r="D115">
-        <v>0.1953</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2185</v>
+        <v>0.2563</v>
       </c>
       <c r="C116">
-        <v>0.0246</v>
+        <v>0.0257</v>
       </c>
       <c r="D116">
-        <v>0.1939</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2765,13 +2765,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2162</v>
+        <v>0.2576</v>
       </c>
       <c r="C117">
-        <v>0.0235</v>
+        <v>0.0246</v>
       </c>
       <c r="D117">
-        <v>0.1927</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2779,13 +2779,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2145</v>
+        <v>0.2596</v>
       </c>
       <c r="C118">
-        <v>0.0226</v>
+        <v>0.0237</v>
       </c>
       <c r="D118">
-        <v>0.1919</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.213</v>
+        <v>0.2621</v>
       </c>
       <c r="C119">
-        <v>0.0217</v>
+        <v>0.0228</v>
       </c>
       <c r="D119">
-        <v>0.1913</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2125</v>
+        <v>0.2656</v>
       </c>
       <c r="C120">
-        <v>0.0213</v>
+        <v>0.0224</v>
       </c>
       <c r="D120">
-        <v>0.1912</v>
+        <v>0.2431</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2121</v>
+        <v>0.2691</v>
       </c>
       <c r="C121">
-        <v>0.0206</v>
+        <v>0.0218</v>
       </c>
       <c r="D121">
-        <v>0.1915</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2123</v>
+        <v>0.2729</v>
       </c>
       <c r="C122">
-        <v>0.0196</v>
+        <v>0.0208</v>
       </c>
       <c r="D122">
-        <v>0.1927</v>
+        <v>0.2521</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2138</v>
+        <v>0.2778</v>
       </c>
       <c r="C123">
-        <v>0.019</v>
+        <v>0.0202</v>
       </c>
       <c r="D123">
-        <v>0.1948</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.216</v>
+        <v>0.283</v>
       </c>
       <c r="C124">
-        <v>0.0183</v>
+        <v>0.0195</v>
       </c>
       <c r="D124">
-        <v>0.1977</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.218</v>
+        <v>0.2878</v>
       </c>
       <c r="C125">
-        <v>0.0172</v>
+        <v>0.0184</v>
       </c>
       <c r="D125">
-        <v>0.2007</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2891,13 +2891,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2204</v>
+        <v>0.2927</v>
       </c>
       <c r="C126">
-        <v>0.0161</v>
+        <v>0.0172</v>
       </c>
       <c r="D126">
-        <v>0.2043</v>
+        <v>0.2756</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2232</v>
+        <v>0.2978</v>
       </c>
       <c r="C127">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="D127">
-        <v>0.2082</v>
+        <v>0.2818</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.2258</v>
+        <v>0.3025</v>
       </c>
       <c r="C128">
-        <v>0.0137</v>
+        <v>0.0147</v>
       </c>
       <c r="D128">
-        <v>0.2121</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.229</v>
+        <v>0.3076</v>
       </c>
       <c r="C129">
-        <v>0.0128</v>
+        <v>0.0137</v>
       </c>
       <c r="D129">
-        <v>0.2162</v>
+        <v>0.2939</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2947,13 +2947,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.232</v>
+        <v>0.3121</v>
       </c>
       <c r="C130">
-        <v>0.0117</v>
+        <v>0.0126</v>
       </c>
       <c r="D130">
-        <v>0.2203</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.2344</v>
+        <v>0.3158</v>
       </c>
       <c r="C131">
-        <v>0.0102</v>
+        <v>0.011</v>
       </c>
       <c r="D131">
-        <v>0.2242</v>
+        <v>0.3048</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2975,13 +2975,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.2377</v>
+        <v>0.32</v>
       </c>
       <c r="C132">
-        <v>0.009599999999999999</v>
+        <v>0.0103</v>
       </c>
       <c r="D132">
-        <v>0.2282</v>
+        <v>0.3097</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.2427</v>
+        <v>0.3254</v>
       </c>
       <c r="C133">
-        <v>0.009900000000000001</v>
+        <v>0.0107</v>
       </c>
       <c r="D133">
-        <v>0.2328</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.2475</v>
+        <v>0.3303</v>
       </c>
       <c r="C134">
-        <v>0.0103</v>
+        <v>0.0111</v>
       </c>
       <c r="D134">
-        <v>0.2373</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.2524</v>
+        <v>0.3347</v>
       </c>
       <c r="C135">
-        <v>0.0107</v>
+        <v>0.0115</v>
       </c>
       <c r="D135">
-        <v>0.2418</v>
+        <v>0.3232</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2567</v>
+        <v>0.3381</v>
       </c>
       <c r="C136">
-        <v>0.0107</v>
+        <v>0.0115</v>
       </c>
       <c r="D136">
-        <v>0.246</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2617</v>
+        <v>0.3417</v>
       </c>
       <c r="C137">
-        <v>0.0113</v>
+        <v>0.0121</v>
       </c>
       <c r="D137">
-        <v>0.2505</v>
+        <v>0.3296</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.2659</v>
+        <v>0.3441</v>
       </c>
       <c r="C138">
-        <v>0.0114</v>
+        <v>0.0122</v>
       </c>
       <c r="D138">
-        <v>0.2545</v>
+        <v>0.3319</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.2709</v>
+        <v>0.347</v>
       </c>
       <c r="C139">
-        <v>0.0123</v>
+        <v>0.0132</v>
       </c>
       <c r="D139">
-        <v>0.2585</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.2755</v>
+        <v>0.3491</v>
       </c>
       <c r="C140">
-        <v>0.0127</v>
+        <v>0.0135</v>
       </c>
       <c r="D140">
-        <v>0.2629</v>
+        <v>0.3356</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.2806</v>
+        <v>0.3512</v>
       </c>
       <c r="C141">
-        <v>0.0131</v>
+        <v>0.0139</v>
       </c>
       <c r="D141">
-        <v>0.2675</v>
+        <v>0.3373</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.2844</v>
+        <v>0.352</v>
       </c>
       <c r="C142">
-        <v>0.013</v>
+        <v>0.0138</v>
       </c>
       <c r="D142">
-        <v>0.2713</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.2884</v>
+        <v>0.3528</v>
       </c>
       <c r="C143">
-        <v>0.0129</v>
+        <v>0.0137</v>
       </c>
       <c r="D143">
-        <v>0.2755</v>
+        <v>0.3391</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.2923</v>
+        <v>0.3534</v>
       </c>
       <c r="C144">
-        <v>0.013</v>
+        <v>0.0137</v>
       </c>
       <c r="D144">
-        <v>0.2793</v>
+        <v>0.3397</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.2962</v>
+        <v>0.3539</v>
       </c>
       <c r="C145">
-        <v>0.0134</v>
+        <v>0.0141</v>
       </c>
       <c r="D145">
-        <v>0.2828</v>
+        <v>0.3398</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3171,13 +3171,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.2991</v>
+        <v>0.3536</v>
       </c>
       <c r="C146">
-        <v>0.0137</v>
+        <v>0.0144</v>
       </c>
       <c r="D146">
-        <v>0.2854</v>
+        <v>0.3391</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3033</v>
+        <v>0.354</v>
       </c>
       <c r="C147">
-        <v>0.0142</v>
+        <v>0.015</v>
       </c>
       <c r="D147">
-        <v>0.2891</v>
+        <v>0.3391</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3086</v>
+        <v>0.3553</v>
       </c>
       <c r="C148">
-        <v>0.0147</v>
+        <v>0.0155</v>
       </c>
       <c r="D148">
-        <v>0.2939</v>
+        <v>0.3398</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3131</v>
+        <v>0.3557</v>
       </c>
       <c r="C149">
-        <v>0.015</v>
+        <v>0.0157</v>
       </c>
       <c r="D149">
-        <v>0.2981</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3171</v>
+        <v>0.3558</v>
       </c>
       <c r="C150">
-        <v>0.0154</v>
+        <v>0.0162</v>
       </c>
       <c r="D150">
-        <v>0.3017</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3209</v>
+        <v>0.3558</v>
       </c>
       <c r="C151">
-        <v>0.0162</v>
+        <v>0.017</v>
       </c>
       <c r="D151">
-        <v>0.3047</v>
+        <v>0.3388</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3245</v>
+        <v>0.3556</v>
       </c>
       <c r="C152">
-        <v>0.0166</v>
+        <v>0.0174</v>
       </c>
       <c r="D152">
-        <v>0.3079</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3263</v>
+        <v>0.3538</v>
       </c>
       <c r="C153">
-        <v>0.0162</v>
+        <v>0.017</v>
       </c>
       <c r="D153">
-        <v>0.3101</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3315</v>
+        <v>0.3551</v>
       </c>
       <c r="C154">
-        <v>0.0168</v>
+        <v>0.0175</v>
       </c>
       <c r="D154">
-        <v>0.3148</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3357</v>
+        <v>0.3556</v>
       </c>
       <c r="C155">
-        <v>0.017</v>
+        <v>0.0177</v>
       </c>
       <c r="D155">
-        <v>0.3187</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3397</v>
+        <v>0.3562</v>
       </c>
       <c r="C156">
-        <v>0.0172</v>
+        <v>0.018</v>
       </c>
       <c r="D156">
-        <v>0.3225</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3429</v>
+        <v>0.3563</v>
       </c>
       <c r="C157">
-        <v>0.0173</v>
+        <v>0.018</v>
       </c>
       <c r="D157">
-        <v>0.3256</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3455</v>
+        <v>0.3559</v>
       </c>
       <c r="C158">
-        <v>0.017</v>
+        <v>0.0177</v>
       </c>
       <c r="D158">
-        <v>0.3285</v>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3463</v>
+        <v>0.3539</v>
       </c>
       <c r="C159">
-        <v>0.0154</v>
+        <v>0.016</v>
       </c>
       <c r="D159">
-        <v>0.3309</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3467</v>
+        <v>0.3517</v>
       </c>
       <c r="C160">
-        <v>0.0139</v>
+        <v>0.0144</v>
       </c>
       <c r="D160">
-        <v>0.3328</v>
+        <v>0.3373</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3466</v>
+        <v>0.3495</v>
       </c>
       <c r="C161">
-        <v>0.0129</v>
+        <v>0.0134</v>
       </c>
       <c r="D161">
-        <v>0.3337</v>
+        <v>0.3362</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3466</v>
+        <v>0.3477</v>
       </c>
       <c r="C162">
-        <v>0.0125</v>
+        <v>0.0129</v>
       </c>
       <c r="D162">
-        <v>0.3342</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3456</v>
+        <v>0.3453</v>
       </c>
       <c r="C163">
-        <v>0.0124</v>
+        <v>0.0128</v>
       </c>
       <c r="D163">
-        <v>0.3333</v>
+        <v>0.3325</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3439</v>
+        <v>0.3423</v>
       </c>
       <c r="C164">
-        <v>0.012</v>
+        <v>0.0124</v>
       </c>
       <c r="D164">
-        <v>0.3319</v>
+        <v>0.3299</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3437,13 +3437,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3422</v>
+        <v>0.3393</v>
       </c>
       <c r="C165">
-        <v>0.0117</v>
+        <v>0.0121</v>
       </c>
       <c r="D165">
-        <v>0.3305</v>
+        <v>0.3273</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3451,13 +3451,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3406</v>
+        <v>0.3365</v>
       </c>
       <c r="C166">
-        <v>0.0113</v>
+        <v>0.0117</v>
       </c>
       <c r="D166">
-        <v>0.3293</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3465,13 +3465,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3378</v>
+        <v>0.3327</v>
       </c>
       <c r="C167">
-        <v>0.0109</v>
+        <v>0.0113</v>
       </c>
       <c r="D167">
-        <v>0.3269</v>
+        <v>0.3214</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3479,13 +3479,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3341</v>
+        <v>0.3284</v>
       </c>
       <c r="C168">
-        <v>0.0112</v>
+        <v>0.0115</v>
       </c>
       <c r="D168">
-        <v>0.3229</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3493,13 +3493,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3304</v>
+        <v>0.324</v>
       </c>
       <c r="C169">
-        <v>0.0115</v>
+        <v>0.0119</v>
       </c>
       <c r="D169">
-        <v>0.3189</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3274</v>
+        <v>0.3203</v>
       </c>
       <c r="C170">
-        <v>0.0124</v>
+        <v>0.0127</v>
       </c>
       <c r="D170">
-        <v>0.3151</v>
+        <v>0.3076</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3238</v>
+        <v>0.3156</v>
       </c>
       <c r="C171">
-        <v>0.0124</v>
+        <v>0.0128</v>
       </c>
       <c r="D171">
-        <v>0.3113</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3212</v>
+        <v>0.3119</v>
       </c>
       <c r="C172">
-        <v>0.0131</v>
+        <v>0.0134</v>
       </c>
       <c r="D172">
-        <v>0.3082</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3185</v>
+        <v>0.3077</v>
       </c>
       <c r="C173">
-        <v>0.0136</v>
+        <v>0.0139</v>
       </c>
       <c r="D173">
-        <v>0.3049</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3154</v>
+        <v>0.3029</v>
       </c>
       <c r="C174">
-        <v>0.0135</v>
+        <v>0.0137</v>
       </c>
       <c r="D174">
-        <v>0.302</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.3121</v>
+        <v>0.2976</v>
       </c>
       <c r="C175">
-        <v>0.0133</v>
+        <v>0.0135</v>
       </c>
       <c r="D175">
-        <v>0.2988</v>
+        <v>0.2841</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3591,13 +3591,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.3087</v>
+        <v>0.2921</v>
       </c>
       <c r="C176">
-        <v>0.0135</v>
+        <v>0.0137</v>
       </c>
       <c r="D176">
-        <v>0.2952</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.305</v>
+        <v>0.2862</v>
       </c>
       <c r="C177">
-        <v>0.0137</v>
+        <v>0.0139</v>
       </c>
       <c r="D177">
-        <v>0.2913</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3006</v>
+        <v>0.2794</v>
       </c>
       <c r="C178">
-        <v>0.0136</v>
+        <v>0.0137</v>
       </c>
       <c r="D178">
-        <v>0.287</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3633,13 +3633,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2983</v>
+        <v>0.2744</v>
       </c>
       <c r="C179">
-        <v>0.0147</v>
+        <v>0.0148</v>
       </c>
       <c r="D179">
-        <v>0.2836</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3647,13 +3647,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2961</v>
+        <v>0.2696</v>
       </c>
       <c r="C180">
-        <v>0.0162</v>
+        <v>0.0163</v>
       </c>
       <c r="D180">
-        <v>0.2799</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3661,13 +3661,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2933</v>
+        <v>0.2639</v>
       </c>
       <c r="C181">
         <v>0.0173</v>
       </c>
       <c r="D181">
-        <v>0.276</v>
+        <v>0.2466</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3675,13 +3675,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2916</v>
+        <v>0.2594</v>
       </c>
       <c r="C182">
         <v>0.0195</v>
       </c>
       <c r="D182">
-        <v>0.2721</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3689,13 +3689,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2886</v>
+        <v>0.2535</v>
       </c>
       <c r="C183">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
       <c r="D183">
-        <v>0.2679</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3703,13 +3703,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2857</v>
+        <v>0.2478</v>
       </c>
       <c r="C184">
-        <v>0.0224</v>
+        <v>0.0222</v>
       </c>
       <c r="D184">
-        <v>0.2633</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3717,13 +3717,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.282</v>
+        <v>0.2414</v>
       </c>
       <c r="C185">
-        <v>0.0237</v>
+        <v>0.0234</v>
       </c>
       <c r="D185">
-        <v>0.2583</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3731,13 +3731,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2784</v>
+        <v>0.2352</v>
       </c>
       <c r="C186">
-        <v>0.0254</v>
+        <v>0.025</v>
       </c>
       <c r="D186">
-        <v>0.253</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3745,13 +3745,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2741</v>
+        <v>0.2285</v>
       </c>
       <c r="C187">
-        <v>0.0269</v>
+        <v>0.0264</v>
       </c>
       <c r="D187">
-        <v>0.2472</v>
+        <v>0.2021</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3759,13 +3759,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2688</v>
+        <v>0.2208</v>
       </c>
       <c r="C188">
-        <v>0.0277</v>
+        <v>0.0269</v>
       </c>
       <c r="D188">
-        <v>0.2412</v>
+        <v>0.1939</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3773,13 +3773,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2633</v>
+        <v>0.213</v>
       </c>
       <c r="C189">
-        <v>0.0282</v>
+        <v>0.0273</v>
       </c>
       <c r="D189">
-        <v>0.235</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3787,13 +3787,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2565</v>
+        <v>0.204</v>
       </c>
       <c r="C190">
-        <v>0.0279</v>
+        <v>0.0268</v>
       </c>
       <c r="D190">
-        <v>0.2286</v>
+        <v>0.1773</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3801,13 +3801,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2505</v>
+        <v>0.1962</v>
       </c>
       <c r="C191">
-        <v>0.0283</v>
+        <v>0.027</v>
       </c>
       <c r="D191">
-        <v>0.2221</v>
+        <v>0.1692</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3815,13 +3815,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2419</v>
+        <v>0.1862</v>
       </c>
       <c r="C192">
-        <v>0.0278</v>
+        <v>0.0263</v>
       </c>
       <c r="D192">
-        <v>0.214</v>
+        <v>0.1599</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3829,13 +3829,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.2334</v>
+        <v>0.1765</v>
       </c>
       <c r="C193">
-        <v>0.0275</v>
+        <v>0.0257</v>
       </c>
       <c r="D193">
-        <v>0.2059</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3843,13 +3843,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2214</v>
+        <v>0.1644</v>
       </c>
       <c r="C194">
-        <v>0.0269</v>
+        <v>0.025</v>
       </c>
       <c r="D194">
-        <v>0.1945</v>
+        <v>0.1395</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3857,13 +3857,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.21</v>
+        <v>0.153</v>
       </c>
       <c r="C195">
-        <v>0.0265</v>
+        <v>0.0243</v>
       </c>
       <c r="D195">
-        <v>0.1835</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3871,13 +3871,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2004</v>
+        <v>0.1433</v>
       </c>
       <c r="C196">
-        <v>0.0262</v>
+        <v>0.0238</v>
       </c>
       <c r="D196">
-        <v>0.1743</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3885,13 +3885,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1909</v>
+        <v>0.1339</v>
       </c>
       <c r="C197">
-        <v>0.0257</v>
+        <v>0.0231</v>
       </c>
       <c r="D197">
-        <v>0.1652</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3899,13 +3899,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1825</v>
+        <v>0.1258</v>
       </c>
       <c r="C198">
-        <v>0.0259</v>
+        <v>0.0231</v>
       </c>
       <c r="D198">
-        <v>0.1565</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3913,13 +3913,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1751</v>
+        <v>0.1186</v>
       </c>
       <c r="C199">
-        <v>0.0259</v>
+        <v>0.0228</v>
       </c>
       <c r="D199">
-        <v>0.1492</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3927,13 +3927,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.1673</v>
+        <v>0.1111</v>
       </c>
       <c r="C200">
-        <v>0.0252</v>
+        <v>0.0221</v>
       </c>
       <c r="D200">
-        <v>0.1421</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3941,13 +3941,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.1613</v>
+        <v>0.1054</v>
       </c>
       <c r="C201">
-        <v>0.0251</v>
+        <v>0.0218</v>
       </c>
       <c r="D201">
-        <v>0.1362</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3955,13 +3955,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.1539</v>
+        <v>0.0983</v>
       </c>
       <c r="C202">
-        <v>0.0237</v>
+        <v>0.0203</v>
       </c>
       <c r="D202">
-        <v>0.1302</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3969,13 +3969,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.1472</v>
+        <v>0.0922</v>
       </c>
       <c r="C203">
-        <v>0.0229</v>
+        <v>0.0193</v>
       </c>
       <c r="D203">
-        <v>0.1244</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3983,13 +3983,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.1406</v>
+        <v>0.0862</v>
       </c>
       <c r="C204">
-        <v>0.0218</v>
+        <v>0.0181</v>
       </c>
       <c r="D204">
-        <v>0.1188</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3997,13 +3997,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.1345</v>
+        <v>0.081</v>
       </c>
       <c r="C205">
-        <v>0.021</v>
+        <v>0.0173</v>
       </c>
       <c r="D205">
-        <v>0.1135</v>
+        <v>0.06370000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4011,13 +4011,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.128</v>
+        <v>0.0755</v>
       </c>
       <c r="C206">
-        <v>0.0197</v>
+        <v>0.016</v>
       </c>
       <c r="D206">
-        <v>0.1083</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4025,13 +4025,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.122</v>
+        <v>0.0704</v>
       </c>
       <c r="C207">
-        <v>0.0185</v>
+        <v>0.0147</v>
       </c>
       <c r="D207">
-        <v>0.1035</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4039,13 +4039,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.1158</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="C208">
-        <v>0.0171</v>
+        <v>0.0134</v>
       </c>
       <c r="D208">
-        <v>0.0988</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4053,13 +4053,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.1101</v>
+        <v>0.0606</v>
       </c>
       <c r="C209">
-        <v>0.0157</v>
+        <v>0.0121</v>
       </c>
       <c r="D209">
-        <v>0.0944</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4067,13 +4067,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.1061</v>
+        <v>0.0578</v>
       </c>
       <c r="C210">
-        <v>0.0154</v>
+        <v>0.0117</v>
       </c>
       <c r="D210">
-        <v>0.0907</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4081,13 +4081,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.101</v>
+        <v>0.0538</v>
       </c>
       <c r="C211">
-        <v>0.0141</v>
+        <v>0.0105</v>
       </c>
       <c r="D211">
-        <v>0.08690000000000001</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4095,13 +4095,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.098</v>
+        <v>0.0517</v>
       </c>
       <c r="C212">
-        <v>0.0135</v>
+        <v>0.01</v>
       </c>
       <c r="D212">
-        <v>0.08450000000000001</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4109,13 +4109,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.09619999999999999</v>
+        <v>0.0507</v>
       </c>
       <c r="C213">
-        <v>0.0132</v>
+        <v>0.0097</v>
       </c>
       <c r="D213">
-        <v>0.08309999999999999</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4123,13 +4123,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.09470000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C214">
-        <v>0.013</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="D214">
-        <v>0.08169999999999999</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4137,13 +4137,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.0929</v>
+        <v>0.049</v>
       </c>
       <c r="C215">
-        <v>0.0125</v>
+        <v>0.0092</v>
       </c>
       <c r="D215">
-        <v>0.0804</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4151,13 +4151,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.09039999999999999</v>
+        <v>0.0476</v>
       </c>
       <c r="C216">
-        <v>0.0119</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="D216">
-        <v>0.0786</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4165,13 +4165,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.08840000000000001</v>
+        <v>0.0466</v>
       </c>
       <c r="C217">
-        <v>0.0114</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="D217">
-        <v>0.0771</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4179,13 +4179,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.0866</v>
+        <v>0.0458</v>
       </c>
       <c r="C218">
-        <v>0.0109</v>
+        <v>0.008</v>
       </c>
       <c r="D218">
-        <v>0.0757</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4193,13 +4193,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.0824</v>
+        <v>0.043</v>
       </c>
       <c r="C219">
-        <v>0.009900000000000001</v>
+        <v>0.0072</v>
       </c>
       <c r="D219">
-        <v>0.07240000000000001</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4207,13 +4207,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.07820000000000001</v>
+        <v>0.0404</v>
       </c>
       <c r="C220">
-        <v>0.0092</v>
+        <v>0.0066</v>
       </c>
       <c r="D220">
-        <v>0.06909999999999999</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4221,13 +4221,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.0735</v>
+        <v>0.0375</v>
       </c>
       <c r="C221">
-        <v>0.0083</v>
+        <v>0.0058</v>
       </c>
       <c r="D221">
-        <v>0.06519999999999999</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4235,13 +4235,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.0696</v>
+        <v>0.0352</v>
       </c>
       <c r="C222">
-        <v>0.0076</v>
+        <v>0.0052</v>
       </c>
       <c r="D222">
-        <v>0.062</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4249,13 +4249,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.06660000000000001</v>
+        <v>0.0337</v>
       </c>
       <c r="C223">
-        <v>0.0071</v>
+        <v>0.0048</v>
       </c>
       <c r="D223">
-        <v>0.0594</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4263,13 +4263,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.0635</v>
+        <v>0.0321</v>
       </c>
       <c r="C224">
-        <v>0.0062</v>
+        <v>0.004</v>
       </c>
       <c r="D224">
-        <v>0.0573</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4277,13 +4277,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.0614</v>
+        <v>0.0314</v>
       </c>
       <c r="C225">
-        <v>0.0056</v>
+        <v>0.0036</v>
       </c>
       <c r="D225">
-        <v>0.0559</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4291,13 +4291,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.061</v>
+        <v>0.0324</v>
       </c>
       <c r="C226">
-        <v>0.0059</v>
+        <v>0.004</v>
       </c>
       <c r="D226">
-        <v>0.055</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4305,13 +4305,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.0601</v>
+        <v>0.033</v>
       </c>
       <c r="C227">
-        <v>0.0058</v>
+        <v>0.0039</v>
       </c>
       <c r="D227">
-        <v>0.0544</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4319,13 +4319,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.0611</v>
+        <v>0.0354</v>
       </c>
       <c r="C228">
-        <v>0.0064</v>
+        <v>0.0045</v>
       </c>
       <c r="D228">
-        <v>0.0546</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4333,13 +4333,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.062</v>
+        <v>0.0378</v>
       </c>
       <c r="C229">
-        <v>0.0067</v>
+        <v>0.0049</v>
       </c>
       <c r="D229">
-        <v>0.0552</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4347,13 +4347,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.0622</v>
+        <v>0.0395</v>
       </c>
       <c r="C230">
-        <v>0.0064</v>
+        <v>0.0048</v>
       </c>
       <c r="D230">
-        <v>0.0558</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4361,13 +4361,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.0639</v>
+        <v>0.0427</v>
       </c>
       <c r="C231">
-        <v>0.0067</v>
+        <v>0.0052</v>
       </c>
       <c r="D231">
-        <v>0.0571</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4375,13 +4375,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.0655</v>
+        <v>0.0463</v>
       </c>
       <c r="C232">
-        <v>0.0074</v>
+        <v>0.006</v>
       </c>
       <c r="D232">
-        <v>0.0582</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4389,13 +4389,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.06660000000000001</v>
+        <v>0.0494</v>
       </c>
       <c r="C233">
-        <v>0.0077</v>
+        <v>0.0064</v>
       </c>
       <c r="D233">
-        <v>0.0589</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4403,13 +4403,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.0674</v>
+        <v>0.0522</v>
       </c>
       <c r="C234">
-        <v>0.0075</v>
+        <v>0.0064</v>
       </c>
       <c r="D234">
-        <v>0.0599</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4417,13 +4417,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.06909999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="C235">
-        <v>0.0076</v>
+        <v>0.0065</v>
       </c>
       <c r="D235">
-        <v>0.0615</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4431,13 +4431,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.0708</v>
+        <v>0.06</v>
       </c>
       <c r="C236">
-        <v>0.0077</v>
+        <v>0.0067</v>
       </c>
       <c r="D236">
-        <v>0.0631</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4445,13 +4445,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.0733</v>
+        <v>0.0645</v>
       </c>
       <c r="C237">
-        <v>0.0077</v>
+        <v>0.0069</v>
       </c>
       <c r="D237">
-        <v>0.0655</v>
+        <v>0.0576</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4459,13 +4459,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.0765</v>
+        <v>0.0698</v>
       </c>
       <c r="C238">
-        <v>0.007900000000000001</v>
+        <v>0.0072</v>
       </c>
       <c r="D238">
-        <v>0.06859999999999999</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4473,13 +4473,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.08069999999999999</v>
+        <v>0.0761</v>
       </c>
       <c r="C239">
-        <v>0.008399999999999999</v>
+        <v>0.0078</v>
       </c>
       <c r="D239">
-        <v>0.0723</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4487,13 +4487,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.08599999999999999</v>
+        <v>0.0834</v>
       </c>
       <c r="C240">
-        <v>0.0094</v>
+        <v>0.0089</v>
       </c>
       <c r="D240">
-        <v>0.0766</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4501,13 +4501,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.0914</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="C241">
-        <v>0.0105</v>
+        <v>0.0101</v>
       </c>
       <c r="D241">
-        <v>0.0809</v>
+        <v>0.0808</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4515,13 +4515,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.09669999999999999</v>
+        <v>0.0983</v>
       </c>
       <c r="C242">
-        <v>0.0115</v>
+        <v>0.0112</v>
       </c>
       <c r="D242">
-        <v>0.0852</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4529,13 +4529,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.1015</v>
+        <v>0.1053</v>
       </c>
       <c r="C243">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
       <c r="D243">
-        <v>0.0892</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4543,13 +4543,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.1066</v>
+        <v>0.1128</v>
       </c>
       <c r="C244">
-        <v>0.0132</v>
+        <v>0.0131</v>
       </c>
       <c r="D244">
-        <v>0.0934</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4557,13 +4557,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1113</v>
+        <v>0.1198</v>
       </c>
       <c r="C245">
-        <v>0.0136</v>
+        <v>0.0135</v>
       </c>
       <c r="D245">
-        <v>0.0977</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4571,13 +4571,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.1147</v>
+        <v>0.1255</v>
       </c>
       <c r="C246">
         <v>0.013</v>
       </c>
       <c r="D246">
-        <v>0.1017</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4585,13 +4585,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.1191</v>
+        <v>0.1322</v>
       </c>
       <c r="C247">
-        <v>0.0131</v>
+        <v>0.0132</v>
       </c>
       <c r="D247">
-        <v>0.1059</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4599,13 +4599,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.1226</v>
+        <v>0.1381</v>
       </c>
       <c r="C248">
-        <v>0.0126</v>
+        <v>0.0128</v>
       </c>
       <c r="D248">
-        <v>0.11</v>
+        <v>0.1253</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4613,13 +4613,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.1261</v>
+        <v>0.1439</v>
       </c>
       <c r="C249">
-        <v>0.012</v>
+        <v>0.0122</v>
       </c>
       <c r="D249">
-        <v>0.1141</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4627,13 +4627,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.1298</v>
+        <v>0.15</v>
       </c>
       <c r="C250">
-        <v>0.0117</v>
+        <v>0.0119</v>
       </c>
       <c r="D250">
-        <v>0.1182</v>
+        <v>0.1381</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2014 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2014 - Diaria.xlsx
@@ -1155,13 +1155,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3148</v>
+        <v>0.3132</v>
       </c>
       <c r="C2">
         <v>0.0233</v>
       </c>
       <c r="D2">
-        <v>0.2915</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.316</v>
+        <v>0.3143</v>
       </c>
       <c r="C3">
-        <v>0.023</v>
+        <v>0.0229</v>
       </c>
       <c r="D3">
-        <v>0.293</v>
+        <v>0.2914</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3171</v>
+        <v>0.3154</v>
       </c>
       <c r="C4">
         <v>0.0225</v>
       </c>
       <c r="D4">
-        <v>0.2946</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1197,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3188</v>
+        <v>0.3171</v>
       </c>
       <c r="C5">
-        <v>0.0223</v>
+        <v>0.0222</v>
       </c>
       <c r="D5">
-        <v>0.2965</v>
+        <v>0.2949</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3209</v>
+        <v>0.3192</v>
       </c>
       <c r="C6">
         <v>0.0222</v>
       </c>
       <c r="D6">
-        <v>0.2986</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1225,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3226</v>
+        <v>0.321</v>
       </c>
       <c r="C7">
         <v>0.0219</v>
       </c>
       <c r="D7">
-        <v>0.3007</v>
+        <v>0.2991</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3243</v>
+        <v>0.3227</v>
       </c>
       <c r="C8">
-        <v>0.0215</v>
+        <v>0.0214</v>
       </c>
       <c r="D8">
-        <v>0.3028</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3253</v>
+        <v>0.3237</v>
       </c>
       <c r="C9">
-        <v>0.0208</v>
+        <v>0.0207</v>
       </c>
       <c r="D9">
-        <v>0.3046</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,13 +1267,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3265</v>
+        <v>0.3249</v>
       </c>
       <c r="C10">
         <v>0.0204</v>
       </c>
       <c r="D10">
-        <v>0.3061</v>
+        <v>0.3046</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1281,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3274</v>
+        <v>0.3258</v>
       </c>
       <c r="C11">
         <v>0.0199</v>
       </c>
       <c r="D11">
-        <v>0.3074</v>
+        <v>0.3059</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1295,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3285</v>
+        <v>0.3269</v>
       </c>
       <c r="C12">
         <v>0.02</v>
       </c>
       <c r="D12">
-        <v>0.3085</v>
+        <v>0.3069</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3296</v>
+        <v>0.3281</v>
       </c>
       <c r="C13">
         <v>0.0198</v>
       </c>
       <c r="D13">
-        <v>0.3097</v>
+        <v>0.3082</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1323,13 +1323,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3322</v>
+        <v>0.3307</v>
       </c>
       <c r="C14">
         <v>0.021</v>
       </c>
       <c r="D14">
-        <v>0.3112</v>
+        <v>0.3097</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3347</v>
+        <v>0.3332</v>
       </c>
       <c r="C15">
         <v>0.0221</v>
       </c>
       <c r="D15">
-        <v>0.3126</v>
+        <v>0.3111</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1351,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3369</v>
+        <v>0.3354</v>
       </c>
       <c r="C16">
         <v>0.0231</v>
       </c>
       <c r="D16">
-        <v>0.3138</v>
+        <v>0.3124</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1365,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3395</v>
+        <v>0.3381</v>
       </c>
       <c r="C17">
         <v>0.0245</v>
       </c>
       <c r="D17">
-        <v>0.315</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3425</v>
+        <v>0.3411</v>
       </c>
       <c r="C18">
         <v>0.0265</v>
       </c>
       <c r="D18">
-        <v>0.316</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3458</v>
+        <v>0.3444</v>
       </c>
       <c r="C19">
         <v>0.0291</v>
       </c>
       <c r="D19">
-        <v>0.3167</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1407,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3479</v>
+        <v>0.3465</v>
       </c>
       <c r="C20">
-        <v>0.0311</v>
+        <v>0.031</v>
       </c>
       <c r="D20">
-        <v>0.3168</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1421,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3488</v>
+        <v>0.3475</v>
       </c>
       <c r="C21">
         <v>0.0325</v>
       </c>
       <c r="D21">
-        <v>0.3163</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.349</v>
+        <v>0.3477</v>
       </c>
       <c r="C22">
-        <v>0.0336</v>
+        <v>0.0335</v>
       </c>
       <c r="D22">
-        <v>0.3155</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1449,13 +1449,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3491</v>
+        <v>0.3478</v>
       </c>
       <c r="C23">
-        <v>0.0347</v>
+        <v>0.0346</v>
       </c>
       <c r="D23">
-        <v>0.3144</v>
+        <v>0.3132</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3505</v>
+        <v>0.3493</v>
       </c>
       <c r="C24">
         <v>0.0365</v>
       </c>
       <c r="D24">
-        <v>0.314</v>
+        <v>0.3128</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1477,13 +1477,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3526</v>
+        <v>0.3513</v>
       </c>
       <c r="C25">
         <v>0.0387</v>
       </c>
       <c r="D25">
-        <v>0.3138</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1491,13 +1491,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.355</v>
+        <v>0.3537</v>
       </c>
       <c r="C26">
         <v>0.041</v>
       </c>
       <c r="D26">
-        <v>0.3139</v>
+        <v>0.3127</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3582</v>
+        <v>0.3569</v>
       </c>
       <c r="C27">
         <v>0.0438</v>
       </c>
       <c r="D27">
-        <v>0.3144</v>
+        <v>0.3132</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1519,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3614</v>
+        <v>0.3601</v>
       </c>
       <c r="C28">
         <v>0.0463</v>
       </c>
       <c r="D28">
-        <v>0.3151</v>
+        <v>0.3138</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3642</v>
+        <v>0.3629</v>
       </c>
       <c r="C29">
         <v>0.0481</v>
       </c>
       <c r="D29">
-        <v>0.3161</v>
+        <v>0.3149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3687</v>
+        <v>0.3674</v>
       </c>
       <c r="C30">
         <v>0.0509</v>
       </c>
       <c r="D30">
-        <v>0.3177</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3737</v>
+        <v>0.3724</v>
       </c>
       <c r="C31">
-        <v>0.0542</v>
+        <v>0.0541</v>
       </c>
       <c r="D31">
-        <v>0.3196</v>
+        <v>0.3183</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3778</v>
+        <v>0.3764</v>
       </c>
       <c r="C32">
-        <v>0.0562</v>
+        <v>0.0561</v>
       </c>
       <c r="D32">
-        <v>0.3216</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1589,13 +1589,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3823</v>
+        <v>0.381</v>
       </c>
       <c r="C33">
         <v>0.0586</v>
       </c>
       <c r="D33">
-        <v>0.3237</v>
+        <v>0.3224</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3857</v>
+        <v>0.3844</v>
       </c>
       <c r="C34">
         <v>0.0599</v>
       </c>
       <c r="D34">
-        <v>0.3258</v>
+        <v>0.3245</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1617,13 +1617,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3894</v>
+        <v>0.388</v>
       </c>
       <c r="C35">
         <v>0.0612</v>
       </c>
       <c r="D35">
-        <v>0.3282</v>
+        <v>0.3269</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1631,13 +1631,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3925</v>
+        <v>0.3912</v>
       </c>
       <c r="C36">
         <v>0.0622</v>
       </c>
       <c r="D36">
-        <v>0.3303</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1645,13 +1645,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3957</v>
+        <v>0.3944</v>
       </c>
       <c r="C37">
         <v>0.06320000000000001</v>
       </c>
       <c r="D37">
-        <v>0.3325</v>
+        <v>0.3312</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3983</v>
+        <v>0.397</v>
       </c>
       <c r="C38">
-        <v>0.0636</v>
+        <v>0.0635</v>
       </c>
       <c r="D38">
-        <v>0.3347</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4007</v>
+        <v>0.3993</v>
       </c>
       <c r="C39">
-        <v>0.064</v>
+        <v>0.0639</v>
       </c>
       <c r="D39">
-        <v>0.3367</v>
+        <v>0.3354</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4036</v>
+        <v>0.4023</v>
       </c>
       <c r="C40">
         <v>0.0648</v>
       </c>
       <c r="D40">
-        <v>0.3388</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4067</v>
+        <v>0.4054</v>
       </c>
       <c r="C41">
         <v>0.06560000000000001</v>
       </c>
       <c r="D41">
-        <v>0.3411</v>
+        <v>0.3398</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1715,13 +1715,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4097</v>
+        <v>0.4084</v>
       </c>
       <c r="C42">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
       <c r="D42">
-        <v>0.3432</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1729,13 +1729,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4118</v>
+        <v>0.4105</v>
       </c>
       <c r="C43">
         <v>0.06660000000000001</v>
       </c>
       <c r="D43">
-        <v>0.3452</v>
+        <v>0.3439</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1743,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4132</v>
+        <v>0.4119</v>
       </c>
       <c r="C44">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
       <c r="D44">
-        <v>0.3467</v>
+        <v>0.3455</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1757,13 +1757,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4136</v>
+        <v>0.4124</v>
       </c>
       <c r="C45">
-        <v>0.06610000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="D45">
-        <v>0.3475</v>
+        <v>0.3464</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1771,13 +1771,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4132</v>
+        <v>0.4121</v>
       </c>
       <c r="C46">
-        <v>0.0654</v>
+        <v>0.0653</v>
       </c>
       <c r="D46">
-        <v>0.3479</v>
+        <v>0.3467</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1785,13 +1785,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4123</v>
+        <v>0.4112</v>
       </c>
       <c r="C47">
-        <v>0.06469999999999999</v>
+        <v>0.0646</v>
       </c>
       <c r="D47">
-        <v>0.3476</v>
+        <v>0.3466</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1799,13 +1799,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4114</v>
+        <v>0.4103</v>
       </c>
       <c r="C48">
-        <v>0.0645</v>
+        <v>0.0644</v>
       </c>
       <c r="D48">
-        <v>0.3469</v>
+        <v>0.3459</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1813,13 +1813,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4119</v>
+        <v>0.4108</v>
       </c>
       <c r="C49">
         <v>0.0659</v>
       </c>
       <c r="D49">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1827,13 +1827,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4116</v>
+        <v>0.4106</v>
       </c>
       <c r="C50">
-        <v>0.06660000000000001</v>
+        <v>0.0665</v>
       </c>
       <c r="D50">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1841,13 +1841,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="C51">
         <v>0.06710000000000001</v>
       </c>
       <c r="D51">
-        <v>0.3438</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1855,13 +1855,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4102</v>
+        <v>0.4093</v>
       </c>
       <c r="C52">
         <v>0.068</v>
       </c>
       <c r="D52">
-        <v>0.3422</v>
+        <v>0.3413</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1869,13 +1869,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4089</v>
+        <v>0.4079</v>
       </c>
       <c r="C53">
-        <v>0.06900000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D53">
-        <v>0.3399</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1883,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4075</v>
+        <v>0.4065</v>
       </c>
       <c r="C54">
         <v>0.0701</v>
       </c>
       <c r="D54">
-        <v>0.3373</v>
+        <v>0.3364</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1897,13 +1897,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4055</v>
+        <v>0.4046</v>
       </c>
       <c r="C55">
         <v>0.07140000000000001</v>
       </c>
       <c r="D55">
-        <v>0.3341</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1911,13 +1911,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4039</v>
+        <v>0.403</v>
       </c>
       <c r="C56">
         <v>0.073</v>
       </c>
       <c r="D56">
-        <v>0.3309</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1925,13 +1925,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4011</v>
+        <v>0.4002</v>
       </c>
       <c r="C57">
         <v>0.0738</v>
       </c>
       <c r="D57">
-        <v>0.3273</v>
+        <v>0.3264</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1939,13 +1939,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3976</v>
+        <v>0.3968</v>
       </c>
       <c r="C58">
-        <v>0.0743</v>
+        <v>0.0742</v>
       </c>
       <c r="D58">
-        <v>0.3234</v>
+        <v>0.3226</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1953,13 +1953,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3938</v>
+        <v>0.393</v>
       </c>
       <c r="C59">
         <v>0.0746</v>
       </c>
       <c r="D59">
-        <v>0.3192</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1967,13 +1967,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3889</v>
+        <v>0.3881</v>
       </c>
       <c r="C60">
         <v>0.0745</v>
       </c>
       <c r="D60">
-        <v>0.3144</v>
+        <v>0.3137</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1981,13 +1981,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.384</v>
+        <v>0.3833</v>
       </c>
       <c r="C61">
         <v>0.0747</v>
       </c>
       <c r="D61">
-        <v>0.3093</v>
+        <v>0.3086</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1995,13 +1995,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3787</v>
+        <v>0.378</v>
       </c>
       <c r="C62">
         <v>0.07480000000000001</v>
       </c>
       <c r="D62">
-        <v>0.3039</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2009,13 +2009,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3736</v>
+        <v>0.3728</v>
       </c>
       <c r="C63">
-        <v>0.07530000000000001</v>
+        <v>0.0752</v>
       </c>
       <c r="D63">
-        <v>0.2983</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2023,13 +2023,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3677</v>
+        <v>0.367</v>
       </c>
       <c r="C64">
-        <v>0.07539999999999999</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D64">
-        <v>0.2924</v>
+        <v>0.2917</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2037,13 +2037,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3619</v>
+        <v>0.3612</v>
       </c>
       <c r="C65">
         <v>0.0755</v>
       </c>
       <c r="D65">
-        <v>0.2863</v>
+        <v>0.2857</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2051,13 +2051,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3559</v>
+        <v>0.3552</v>
       </c>
       <c r="C66">
-        <v>0.0756</v>
+        <v>0.0755</v>
       </c>
       <c r="D66">
-        <v>0.2803</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3503</v>
+        <v>0.3496</v>
       </c>
       <c r="C67">
-        <v>0.0757</v>
+        <v>0.0756</v>
       </c>
       <c r="D67">
-        <v>0.2746</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2079,13 +2079,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3445</v>
+        <v>0.3438</v>
       </c>
       <c r="C68">
         <v>0.0752</v>
       </c>
       <c r="D68">
-        <v>0.2693</v>
+        <v>0.2687</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2093,13 +2093,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3384</v>
+        <v>0.3377</v>
       </c>
       <c r="C69">
-        <v>0.0742</v>
+        <v>0.0741</v>
       </c>
       <c r="D69">
-        <v>0.2642</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2107,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3308</v>
+        <v>0.3301</v>
       </c>
       <c r="C70">
         <v>0.0722</v>
       </c>
       <c r="D70">
-        <v>0.2585</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2121,13 +2121,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3239</v>
+        <v>0.3232</v>
       </c>
       <c r="C71">
-        <v>0.07049999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="D71">
-        <v>0.2534</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2135,13 +2135,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3172</v>
+        <v>0.3165</v>
       </c>
       <c r="C72">
-        <v>0.06859999999999999</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="D72">
-        <v>0.2486</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3122</v>
+        <v>0.3115</v>
       </c>
       <c r="C73">
         <v>0.0675</v>
       </c>
       <c r="D73">
-        <v>0.2447</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2163,13 +2163,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3072</v>
+        <v>0.3065</v>
       </c>
       <c r="C74">
         <v>0.0663</v>
       </c>
       <c r="D74">
-        <v>0.2409</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2177,13 +2177,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3021</v>
+        <v>0.3014</v>
       </c>
       <c r="C75">
         <v>0.0644</v>
       </c>
       <c r="D75">
-        <v>0.2377</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2971</v>
+        <v>0.2964</v>
       </c>
       <c r="C76">
         <v>0.0623</v>
       </c>
       <c r="D76">
-        <v>0.2348</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2934</v>
+        <v>0.2926</v>
       </c>
       <c r="C77">
         <v>0.0609</v>
       </c>
       <c r="D77">
-        <v>0.2324</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2907</v>
+        <v>0.2899</v>
       </c>
       <c r="C78">
         <v>0.06</v>
       </c>
       <c r="D78">
-        <v>0.2306</v>
+        <v>0.2299</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.288</v>
+        <v>0.2872</v>
       </c>
       <c r="C79">
         <v>0.0586</v>
       </c>
       <c r="D79">
-        <v>0.2293</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2864</v>
+        <v>0.2856</v>
       </c>
       <c r="C80">
         <v>0.0576</v>
       </c>
       <c r="D80">
-        <v>0.2288</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2847</v>
+        <v>0.2839</v>
       </c>
       <c r="C81">
         <v>0.056</v>
       </c>
       <c r="D81">
-        <v>0.2287</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2833</v>
+        <v>0.2824</v>
       </c>
       <c r="C82">
         <v>0.0544</v>
       </c>
       <c r="D82">
-        <v>0.2289</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2825</v>
+        <v>0.2816</v>
       </c>
       <c r="C83">
         <v>0.0528</v>
       </c>
       <c r="D83">
-        <v>0.2297</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.282</v>
+        <v>0.2811</v>
       </c>
       <c r="C84">
         <v>0.0513</v>
       </c>
       <c r="D84">
-        <v>0.2307</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2813</v>
+        <v>0.2804</v>
       </c>
       <c r="C85">
-        <v>0.0496</v>
+        <v>0.0495</v>
       </c>
       <c r="D85">
-        <v>0.2317</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2807</v>
+        <v>0.2798</v>
       </c>
       <c r="C86">
-        <v>0.0478</v>
+        <v>0.0477</v>
       </c>
       <c r="D86">
-        <v>0.2329</v>
+        <v>0.2321</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2805</v>
+        <v>0.2796</v>
       </c>
       <c r="C87">
-        <v>0.0464</v>
+        <v>0.0463</v>
       </c>
       <c r="D87">
-        <v>0.2341</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2807</v>
+        <v>0.2798</v>
       </c>
       <c r="C88">
         <v>0.0452</v>
       </c>
       <c r="D88">
-        <v>0.2355</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2805</v>
+        <v>0.2796</v>
       </c>
       <c r="C89">
         <v>0.0438</v>
       </c>
       <c r="D89">
-        <v>0.2367</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2387,13 +2387,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2809</v>
+        <v>0.2801</v>
       </c>
       <c r="C90">
         <v>0.0428</v>
       </c>
       <c r="D90">
-        <v>0.2381</v>
+        <v>0.2372</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2401,13 +2401,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2819</v>
+        <v>0.281</v>
       </c>
       <c r="C91">
         <v>0.0424</v>
       </c>
       <c r="D91">
-        <v>0.2394</v>
+        <v>0.2386</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2415,13 +2415,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2824</v>
+        <v>0.2815</v>
       </c>
       <c r="C92">
         <v>0.0419</v>
       </c>
       <c r="D92">
-        <v>0.2405</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2816</v>
+        <v>0.2808</v>
       </c>
       <c r="C93">
         <v>0.0406</v>
       </c>
       <c r="D93">
-        <v>0.2411</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2809</v>
+        <v>0.2801</v>
       </c>
       <c r="C94">
         <v>0.0394</v>
       </c>
       <c r="D94">
-        <v>0.2415</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2457,13 +2457,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2808</v>
+        <v>0.28</v>
       </c>
       <c r="C95">
         <v>0.0391</v>
       </c>
       <c r="D95">
-        <v>0.2417</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2471,13 +2471,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2799</v>
+        <v>0.2792</v>
       </c>
       <c r="C96">
         <v>0.0383</v>
       </c>
       <c r="D96">
-        <v>0.2417</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2485,13 +2485,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2784</v>
+        <v>0.2776</v>
       </c>
       <c r="C97">
         <v>0.0372</v>
       </c>
       <c r="D97">
-        <v>0.2412</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2499,13 +2499,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2766</v>
+        <v>0.2758</v>
       </c>
       <c r="C98">
         <v>0.036</v>
       </c>
       <c r="D98">
-        <v>0.2405</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2747</v>
+        <v>0.274</v>
       </c>
       <c r="C99">
         <v>0.0352</v>
       </c>
       <c r="D99">
-        <v>0.2395</v>
+        <v>0.2388</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2527,13 +2527,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2724</v>
+        <v>0.2716</v>
       </c>
       <c r="C100">
-        <v>0.0343</v>
+        <v>0.0342</v>
       </c>
       <c r="D100">
-        <v>0.2382</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2541,13 +2541,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.27</v>
+        <v>0.2692</v>
       </c>
       <c r="C101">
-        <v>0.0334</v>
+        <v>0.0333</v>
       </c>
       <c r="D101">
-        <v>0.2367</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2682</v>
+        <v>0.2674</v>
       </c>
       <c r="C102">
-        <v>0.0329</v>
+        <v>0.0328</v>
       </c>
       <c r="D102">
-        <v>0.2353</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2662</v>
+        <v>0.2654</v>
       </c>
       <c r="C103">
         <v>0.0324</v>
       </c>
       <c r="D103">
-        <v>0.2338</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2583,13 +2583,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2645</v>
+        <v>0.2636</v>
       </c>
       <c r="C104">
         <v>0.032</v>
       </c>
       <c r="D104">
-        <v>0.2325</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2597,13 +2597,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2632</v>
+        <v>0.2623</v>
       </c>
       <c r="C105">
         <v>0.032</v>
       </c>
       <c r="D105">
-        <v>0.2313</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2611,13 +2611,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2623</v>
+        <v>0.2613</v>
       </c>
       <c r="C106">
-        <v>0.0322</v>
+        <v>0.0321</v>
       </c>
       <c r="D106">
-        <v>0.2301</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2625,13 +2625,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2608</v>
+        <v>0.2598</v>
       </c>
       <c r="C107">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="D107">
-        <v>0.2288</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2639,13 +2639,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2591</v>
+        <v>0.2581</v>
       </c>
       <c r="C108">
         <v>0.0316</v>
       </c>
       <c r="D108">
-        <v>0.2275</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2653,13 +2653,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2578</v>
+        <v>0.2567</v>
       </c>
       <c r="C109">
         <v>0.0314</v>
       </c>
       <c r="D109">
-        <v>0.2264</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2667,13 +2667,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2573</v>
+        <v>0.2562</v>
       </c>
       <c r="C110">
         <v>0.0315</v>
       </c>
       <c r="D110">
-        <v>0.2258</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2681,13 +2681,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2568</v>
+        <v>0.2556</v>
       </c>
       <c r="C111">
-        <v>0.0313</v>
+        <v>0.0312</v>
       </c>
       <c r="D111">
-        <v>0.2255</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2695,13 +2695,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2561</v>
+        <v>0.2548</v>
       </c>
       <c r="C112">
         <v>0.0305</v>
       </c>
       <c r="D112">
-        <v>0.2256</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2709,13 +2709,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2554</v>
+        <v>0.2541</v>
       </c>
       <c r="C113">
         <v>0.0294</v>
       </c>
       <c r="D113">
-        <v>0.226</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2723,13 +2723,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.255</v>
+        <v>0.2537</v>
       </c>
       <c r="C114">
         <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.227</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2737,13 +2737,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2553</v>
+        <v>0.254</v>
       </c>
       <c r="C115">
         <v>0.0268</v>
       </c>
       <c r="D115">
-        <v>0.2286</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2563</v>
+        <v>0.2548</v>
       </c>
       <c r="C116">
         <v>0.0257</v>
       </c>
       <c r="D116">
-        <v>0.2306</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2765,13 +2765,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2576</v>
+        <v>0.2561</v>
       </c>
       <c r="C117">
         <v>0.0246</v>
       </c>
       <c r="D117">
-        <v>0.233</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2779,13 +2779,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2596</v>
+        <v>0.2581</v>
       </c>
       <c r="C118">
         <v>0.0237</v>
       </c>
       <c r="D118">
-        <v>0.2359</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2621</v>
+        <v>0.2605</v>
       </c>
       <c r="C119">
         <v>0.0228</v>
       </c>
       <c r="D119">
-        <v>0.2393</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2656</v>
+        <v>0.264</v>
       </c>
       <c r="C120">
         <v>0.0224</v>
       </c>
       <c r="D120">
-        <v>0.2431</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2691</v>
+        <v>0.2674</v>
       </c>
       <c r="C121">
-        <v>0.0218</v>
+        <v>0.0217</v>
       </c>
       <c r="D121">
-        <v>0.2473</v>
+        <v>0.2457</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2729</v>
+        <v>0.2712</v>
       </c>
       <c r="C122">
         <v>0.0208</v>
       </c>
       <c r="D122">
-        <v>0.2521</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2778</v>
+        <v>0.2761</v>
       </c>
       <c r="C123">
         <v>0.0202</v>
       </c>
       <c r="D123">
-        <v>0.2576</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.283</v>
+        <v>0.2812</v>
       </c>
       <c r="C124">
         <v>0.0195</v>
       </c>
       <c r="D124">
-        <v>0.2635</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2878</v>
+        <v>0.286</v>
       </c>
       <c r="C125">
         <v>0.0184</v>
       </c>
       <c r="D125">
-        <v>0.2694</v>
+        <v>0.2676</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2891,13 +2891,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2927</v>
+        <v>0.2909</v>
       </c>
       <c r="C126">
         <v>0.0172</v>
       </c>
       <c r="D126">
-        <v>0.2756</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2978</v>
+        <v>0.296</v>
       </c>
       <c r="C127">
         <v>0.016</v>
       </c>
       <c r="D127">
-        <v>0.2818</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3025</v>
+        <v>0.3007</v>
       </c>
       <c r="C128">
         <v>0.0147</v>
       </c>
       <c r="D128">
-        <v>0.2879</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3076</v>
+        <v>0.3057</v>
       </c>
       <c r="C129">
         <v>0.0137</v>
       </c>
       <c r="D129">
-        <v>0.2939</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2947,13 +2947,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3121</v>
+        <v>0.3103</v>
       </c>
       <c r="C130">
         <v>0.0126</v>
       </c>
       <c r="D130">
-        <v>0.2995</v>
+        <v>0.2977</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3158</v>
+        <v>0.314</v>
       </c>
       <c r="C131">
         <v>0.011</v>
       </c>
       <c r="D131">
-        <v>0.3048</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2975,13 +2975,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.32</v>
+        <v>0.3182</v>
       </c>
       <c r="C132">
         <v>0.0103</v>
       </c>
       <c r="D132">
-        <v>0.3097</v>
+        <v>0.3079</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3254</v>
+        <v>0.3236</v>
       </c>
       <c r="C133">
         <v>0.0107</v>
       </c>
       <c r="D133">
-        <v>0.3147</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3303</v>
+        <v>0.3285</v>
       </c>
       <c r="C134">
         <v>0.0111</v>
       </c>
       <c r="D134">
-        <v>0.3192</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3347</v>
+        <v>0.3329</v>
       </c>
       <c r="C135">
         <v>0.0115</v>
       </c>
       <c r="D135">
-        <v>0.3232</v>
+        <v>0.3214</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3381</v>
+        <v>0.3363</v>
       </c>
       <c r="C136">
         <v>0.0115</v>
       </c>
       <c r="D136">
-        <v>0.3265</v>
+        <v>0.3248</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3417</v>
+        <v>0.34</v>
       </c>
       <c r="C137">
         <v>0.0121</v>
       </c>
       <c r="D137">
-        <v>0.3296</v>
+        <v>0.3279</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3441</v>
+        <v>0.3424</v>
       </c>
       <c r="C138">
         <v>0.0122</v>
       </c>
       <c r="D138">
-        <v>0.3319</v>
+        <v>0.3302</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.347</v>
+        <v>0.3453</v>
       </c>
       <c r="C139">
-        <v>0.0132</v>
+        <v>0.0131</v>
       </c>
       <c r="D139">
-        <v>0.3338</v>
+        <v>0.3321</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3491</v>
+        <v>0.3474</v>
       </c>
       <c r="C140">
         <v>0.0135</v>
       </c>
       <c r="D140">
-        <v>0.3356</v>
+        <v>0.3339</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3512</v>
+        <v>0.3495</v>
       </c>
       <c r="C141">
         <v>0.0139</v>
       </c>
       <c r="D141">
-        <v>0.3373</v>
+        <v>0.3356</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.352</v>
+        <v>0.3503</v>
       </c>
       <c r="C142">
         <v>0.0138</v>
       </c>
       <c r="D142">
-        <v>0.3382</v>
+        <v>0.3365</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3528</v>
+        <v>0.3511</v>
       </c>
       <c r="C143">
         <v>0.0137</v>
       </c>
       <c r="D143">
-        <v>0.3391</v>
+        <v>0.3374</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3534</v>
+        <v>0.3517</v>
       </c>
       <c r="C144">
         <v>0.0137</v>
       </c>
       <c r="D144">
-        <v>0.3397</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3539</v>
+        <v>0.3523</v>
       </c>
       <c r="C145">
         <v>0.0141</v>
       </c>
       <c r="D145">
-        <v>0.3398</v>
+        <v>0.3381</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3171,13 +3171,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3536</v>
+        <v>0.3519</v>
       </c>
       <c r="C146">
         <v>0.0144</v>
       </c>
       <c r="D146">
-        <v>0.3391</v>
+        <v>0.3375</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.354</v>
+        <v>0.3524</v>
       </c>
       <c r="C147">
-        <v>0.015</v>
+        <v>0.0149</v>
       </c>
       <c r="D147">
-        <v>0.3391</v>
+        <v>0.3374</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3553</v>
+        <v>0.3536</v>
       </c>
       <c r="C148">
-        <v>0.0155</v>
+        <v>0.0154</v>
       </c>
       <c r="D148">
-        <v>0.3398</v>
+        <v>0.3381</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3557</v>
+        <v>0.354</v>
       </c>
       <c r="C149">
         <v>0.0157</v>
       </c>
       <c r="D149">
-        <v>0.34</v>
+        <v>0.3383</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3558</v>
+        <v>0.3541</v>
       </c>
       <c r="C150">
-        <v>0.0162</v>
+        <v>0.0161</v>
       </c>
       <c r="D150">
-        <v>0.3396</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3558</v>
+        <v>0.3542</v>
       </c>
       <c r="C151">
         <v>0.017</v>
       </c>
       <c r="D151">
-        <v>0.3388</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3556</v>
+        <v>0.354</v>
       </c>
       <c r="C152">
         <v>0.0174</v>
       </c>
       <c r="D152">
-        <v>0.3382</v>
+        <v>0.3366</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3538</v>
+        <v>0.3522</v>
       </c>
       <c r="C153">
         <v>0.017</v>
       </c>
       <c r="D153">
-        <v>0.3368</v>
+        <v>0.3353</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3551</v>
+        <v>0.3536</v>
       </c>
       <c r="C154">
         <v>0.0175</v>
       </c>
       <c r="D154">
-        <v>0.3376</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3556</v>
+        <v>0.3541</v>
       </c>
       <c r="C155">
         <v>0.0177</v>
       </c>
       <c r="D155">
-        <v>0.3379</v>
+        <v>0.3363</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3562</v>
+        <v>0.3547</v>
       </c>
       <c r="C156">
-        <v>0.018</v>
+        <v>0.0179</v>
       </c>
       <c r="D156">
-        <v>0.3382</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3563</v>
+        <v>0.3548</v>
       </c>
       <c r="C157">
         <v>0.018</v>
       </c>
       <c r="D157">
-        <v>0.3382</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3559</v>
+        <v>0.3545</v>
       </c>
       <c r="C158">
-        <v>0.0177</v>
+        <v>0.0176</v>
       </c>
       <c r="D158">
-        <v>0.3382</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3539</v>
+        <v>0.3525</v>
       </c>
       <c r="C159">
-        <v>0.016</v>
+        <v>0.0159</v>
       </c>
       <c r="D159">
-        <v>0.3379</v>
+        <v>0.3366</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3517</v>
+        <v>0.3505</v>
       </c>
       <c r="C160">
         <v>0.0144</v>
       </c>
       <c r="D160">
-        <v>0.3373</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3495</v>
+        <v>0.3483</v>
       </c>
       <c r="C161">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
       <c r="D161">
-        <v>0.3362</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3477</v>
+        <v>0.3466</v>
       </c>
       <c r="C162">
         <v>0.0129</v>
       </c>
       <c r="D162">
-        <v>0.3348</v>
+        <v>0.3337</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3453</v>
+        <v>0.3443</v>
       </c>
       <c r="C163">
         <v>0.0128</v>
       </c>
       <c r="D163">
-        <v>0.3325</v>
+        <v>0.3315</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3423</v>
+        <v>0.3414</v>
       </c>
       <c r="C164">
         <v>0.0124</v>
       </c>
       <c r="D164">
-        <v>0.3299</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3437,13 +3437,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3393</v>
+        <v>0.3385</v>
       </c>
       <c r="C165">
         <v>0.0121</v>
       </c>
       <c r="D165">
-        <v>0.3273</v>
+        <v>0.3265</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3451,13 +3451,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3365</v>
+        <v>0.3358</v>
       </c>
       <c r="C166">
-        <v>0.0117</v>
+        <v>0.0116</v>
       </c>
       <c r="D166">
-        <v>0.3248</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3465,13 +3465,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3327</v>
+        <v>0.3321</v>
       </c>
       <c r="C167">
         <v>0.0113</v>
       </c>
       <c r="D167">
-        <v>0.3214</v>
+        <v>0.3208</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3479,13 +3479,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3284</v>
+        <v>0.3278</v>
       </c>
       <c r="C168">
         <v>0.0115</v>
       </c>
       <c r="D168">
-        <v>0.3168</v>
+        <v>0.3163</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3493,13 +3493,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.324</v>
+        <v>0.3236</v>
       </c>
       <c r="C169">
         <v>0.0119</v>
       </c>
       <c r="D169">
-        <v>0.3122</v>
+        <v>0.3118</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3203</v>
+        <v>0.32</v>
       </c>
       <c r="C170">
         <v>0.0127</v>
       </c>
       <c r="D170">
-        <v>0.3076</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3156</v>
+        <v>0.3154</v>
       </c>
       <c r="C171">
         <v>0.0128</v>
       </c>
       <c r="D171">
-        <v>0.3029</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3119</v>
+        <v>0.3116</v>
       </c>
       <c r="C172">
         <v>0.0134</v>
       </c>
       <c r="D172">
-        <v>0.2985</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3077</v>
+        <v>0.3075</v>
       </c>
       <c r="C173">
         <v>0.0139</v>
       </c>
       <c r="D173">
-        <v>0.2938</v>
+        <v>0.2936</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3029</v>
+        <v>0.3027</v>
       </c>
       <c r="C174">
         <v>0.0137</v>
       </c>
       <c r="D174">
-        <v>0.2892</v>
+        <v>0.2889</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2976</v>
+        <v>0.2974</v>
       </c>
       <c r="C175">
         <v>0.0135</v>
       </c>
       <c r="D175">
-        <v>0.2841</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3591,13 +3591,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2921</v>
+        <v>0.2919</v>
       </c>
       <c r="C176">
         <v>0.0137</v>
       </c>
       <c r="D176">
-        <v>0.2784</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2862</v>
+        <v>0.286</v>
       </c>
       <c r="C177">
         <v>0.0139</v>
       </c>
       <c r="D177">
-        <v>0.2723</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2794</v>
+        <v>0.2791</v>
       </c>
       <c r="C178">
         <v>0.0137</v>
       </c>
       <c r="D178">
-        <v>0.2657</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3633,13 +3633,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2744</v>
+        <v>0.2741</v>
       </c>
       <c r="C179">
         <v>0.0148</v>
       </c>
       <c r="D179">
-        <v>0.2596</v>
+        <v>0.2593</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3647,13 +3647,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2696</v>
+        <v>0.2693</v>
       </c>
       <c r="C180">
         <v>0.0163</v>
       </c>
       <c r="D180">
-        <v>0.2533</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3661,13 +3661,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2639</v>
+        <v>0.2636</v>
       </c>
       <c r="C181">
         <v>0.0173</v>
       </c>
       <c r="D181">
-        <v>0.2466</v>
+        <v>0.2463</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3675,13 +3675,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2594</v>
+        <v>0.2591</v>
       </c>
       <c r="C182">
         <v>0.0195</v>
       </c>
       <c r="D182">
-        <v>0.24</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3689,13 +3689,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2535</v>
+        <v>0.2531</v>
       </c>
       <c r="C183">
         <v>0.0206</v>
       </c>
       <c r="D183">
-        <v>0.2329</v>
+        <v>0.2325</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3703,13 +3703,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2478</v>
+        <v>0.2474</v>
       </c>
       <c r="C184">
         <v>0.0222</v>
       </c>
       <c r="D184">
-        <v>0.2256</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3717,13 +3717,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2414</v>
+        <v>0.241</v>
       </c>
       <c r="C185">
         <v>0.0234</v>
       </c>
       <c r="D185">
-        <v>0.218</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3731,13 +3731,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2352</v>
+        <v>0.2348</v>
       </c>
       <c r="C186">
         <v>0.025</v>
       </c>
       <c r="D186">
-        <v>0.2103</v>
+        <v>0.2098</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3745,13 +3745,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2285</v>
+        <v>0.2281</v>
       </c>
       <c r="C187">
         <v>0.0264</v>
       </c>
       <c r="D187">
-        <v>0.2021</v>
+        <v>0.2017</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3759,13 +3759,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2208</v>
+        <v>0.2204</v>
       </c>
       <c r="C188">
         <v>0.0269</v>
       </c>
       <c r="D188">
-        <v>0.1939</v>
+        <v>0.1935</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3773,13 +3773,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.213</v>
+        <v>0.2125</v>
       </c>
       <c r="C189">
         <v>0.0273</v>
       </c>
       <c r="D189">
-        <v>0.1857</v>
+        <v>0.1852</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3787,13 +3787,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.204</v>
+        <v>0.2036</v>
       </c>
       <c r="C190">
         <v>0.0268</v>
       </c>
       <c r="D190">
-        <v>0.1773</v>
+        <v>0.1768</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3801,13 +3801,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.1962</v>
+        <v>0.1957</v>
       </c>
       <c r="C191">
         <v>0.027</v>
       </c>
       <c r="D191">
-        <v>0.1692</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3815,13 +3815,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.1862</v>
+        <v>0.1858</v>
       </c>
       <c r="C192">
         <v>0.0263</v>
       </c>
       <c r="D192">
-        <v>0.1599</v>
+        <v>0.1595</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3829,13 +3829,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.1765</v>
+        <v>0.1761</v>
       </c>
       <c r="C193">
         <v>0.0257</v>
       </c>
       <c r="D193">
-        <v>0.1508</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3843,13 +3843,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.1644</v>
+        <v>0.1641</v>
       </c>
       <c r="C194">
         <v>0.025</v>
       </c>
       <c r="D194">
-        <v>0.1395</v>
+        <v>0.1392</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3857,13 +3857,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.153</v>
+        <v>0.1528</v>
       </c>
       <c r="C195">
         <v>0.0243</v>
       </c>
       <c r="D195">
-        <v>0.1288</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3871,13 +3871,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.1433</v>
+        <v>0.1431</v>
       </c>
       <c r="C196">
         <v>0.0238</v>
       </c>
       <c r="D196">
-        <v>0.1196</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3885,13 +3885,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1339</v>
+        <v>0.1336</v>
       </c>
       <c r="C197">
         <v>0.0231</v>
       </c>
       <c r="D197">
-        <v>0.1108</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3899,13 +3899,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1258</v>
+        <v>0.1255</v>
       </c>
       <c r="C198">
         <v>0.0231</v>
       </c>
       <c r="D198">
-        <v>0.1027</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3913,13 +3913,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1186</v>
+        <v>0.1183</v>
       </c>
       <c r="C199">
         <v>0.0228</v>
       </c>
       <c r="D199">
-        <v>0.09569999999999999</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3927,13 +3927,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.1111</v>
+        <v>0.1108</v>
       </c>
       <c r="C200">
         <v>0.0221</v>
       </c>
       <c r="D200">
-        <v>0.089</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3941,13 +3941,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.1054</v>
+        <v>0.105</v>
       </c>
       <c r="C201">
         <v>0.0218</v>
       </c>
       <c r="D201">
-        <v>0.0835</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3955,13 +3955,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.0983</v>
+        <v>0.0979</v>
       </c>
       <c r="C202">
         <v>0.0203</v>
       </c>
       <c r="D202">
-        <v>0.078</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3969,13 +3969,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.0922</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="C203">
         <v>0.0193</v>
       </c>
       <c r="D203">
-        <v>0.07290000000000001</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3983,13 +3983,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.0862</v>
+        <v>0.0858</v>
       </c>
       <c r="C204">
         <v>0.0181</v>
       </c>
       <c r="D204">
-        <v>0.06809999999999999</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3997,13 +3997,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.081</v>
+        <v>0.0806</v>
       </c>
       <c r="C205">
         <v>0.0173</v>
       </c>
       <c r="D205">
-        <v>0.06370000000000001</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4011,13 +4011,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.0755</v>
+        <v>0.075</v>
       </c>
       <c r="C206">
         <v>0.016</v>
       </c>
       <c r="D206">
-        <v>0.0595</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4025,13 +4025,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.0704</v>
+        <v>0.0699</v>
       </c>
       <c r="C207">
         <v>0.0147</v>
       </c>
       <c r="D207">
-        <v>0.0557</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4039,13 +4039,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.06519999999999999</v>
+        <v>0.0648</v>
       </c>
       <c r="C208">
         <v>0.0134</v>
       </c>
       <c r="D208">
-        <v>0.0518</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4053,13 +4053,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.0606</v>
+        <v>0.0602</v>
       </c>
       <c r="C209">
         <v>0.0121</v>
       </c>
       <c r="D209">
-        <v>0.0485</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4067,13 +4067,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.0578</v>
+        <v>0.0573</v>
       </c>
       <c r="C210">
         <v>0.0117</v>
       </c>
       <c r="D210">
-        <v>0.0461</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4081,13 +4081,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.0538</v>
+        <v>0.0533</v>
       </c>
       <c r="C211">
         <v>0.0105</v>
       </c>
       <c r="D211">
-        <v>0.0433</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4095,13 +4095,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.0517</v>
+        <v>0.0512</v>
       </c>
       <c r="C212">
         <v>0.01</v>
       </c>
       <c r="D212">
-        <v>0.0417</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4109,13 +4109,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.0507</v>
+        <v>0.0502</v>
       </c>
       <c r="C213">
         <v>0.0097</v>
       </c>
       <c r="D213">
-        <v>0.041</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4123,13 +4123,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.05</v>
+        <v>0.0495</v>
       </c>
       <c r="C214">
         <v>0.009599999999999999</v>
       </c>
       <c r="D214">
-        <v>0.0404</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4137,13 +4137,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.049</v>
+        <v>0.0485</v>
       </c>
       <c r="C215">
         <v>0.0092</v>
       </c>
       <c r="D215">
-        <v>0.0398</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4151,13 +4151,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.0476</v>
+        <v>0.047</v>
       </c>
       <c r="C216">
         <v>0.008699999999999999</v>
       </c>
       <c r="D216">
-        <v>0.0388</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4165,13 +4165,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.0466</v>
+        <v>0.0461</v>
       </c>
       <c r="C217">
-        <v>0.008399999999999999</v>
+        <v>0.0083</v>
       </c>
       <c r="D217">
-        <v>0.0382</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4179,13 +4179,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.0458</v>
+        <v>0.0453</v>
       </c>
       <c r="C218">
         <v>0.008</v>
       </c>
       <c r="D218">
-        <v>0.0377</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4193,13 +4193,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.043</v>
+        <v>0.0425</v>
       </c>
       <c r="C219">
         <v>0.0072</v>
       </c>
       <c r="D219">
-        <v>0.0358</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4207,13 +4207,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.0404</v>
+        <v>0.04</v>
       </c>
       <c r="C220">
-        <v>0.0066</v>
+        <v>0.0065</v>
       </c>
       <c r="D220">
-        <v>0.0339</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4221,13 +4221,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.0375</v>
+        <v>0.0371</v>
       </c>
       <c r="C221">
         <v>0.0058</v>
       </c>
       <c r="D221">
-        <v>0.0317</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4235,13 +4235,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.0352</v>
+        <v>0.0349</v>
       </c>
       <c r="C222">
         <v>0.0052</v>
       </c>
       <c r="D222">
-        <v>0.03</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4249,13 +4249,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.0337</v>
+        <v>0.0335</v>
       </c>
       <c r="C223">
         <v>0.0048</v>
       </c>
       <c r="D223">
-        <v>0.0289</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4263,13 +4263,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.0321</v>
+        <v>0.0318</v>
       </c>
       <c r="C224">
         <v>0.004</v>
       </c>
       <c r="D224">
-        <v>0.028</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4277,13 +4277,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.0314</v>
+        <v>0.0311</v>
       </c>
       <c r="C225">
         <v>0.0036</v>
       </c>
       <c r="D225">
-        <v>0.0278</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4291,13 +4291,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.0324</v>
+        <v>0.0321</v>
       </c>
       <c r="C226">
         <v>0.004</v>
       </c>
       <c r="D226">
-        <v>0.0284</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4305,13 +4305,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.033</v>
+        <v>0.0327</v>
       </c>
       <c r="C227">
         <v>0.0039</v>
       </c>
       <c r="D227">
-        <v>0.0291</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4319,13 +4319,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.0354</v>
+        <v>0.035</v>
       </c>
       <c r="C228">
         <v>0.0045</v>
       </c>
       <c r="D228">
-        <v>0.0309</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4333,13 +4333,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.0378</v>
+        <v>0.0374</v>
       </c>
       <c r="C229">
         <v>0.0049</v>
       </c>
       <c r="D229">
-        <v>0.0328</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4347,13 +4347,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.0395</v>
+        <v>0.039</v>
       </c>
       <c r="C230">
         <v>0.0048</v>
       </c>
       <c r="D230">
-        <v>0.0347</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4361,13 +4361,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.0427</v>
+        <v>0.0422</v>
       </c>
       <c r="C231">
         <v>0.0052</v>
       </c>
       <c r="D231">
-        <v>0.0375</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4375,13 +4375,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.0463</v>
+        <v>0.0458</v>
       </c>
       <c r="C232">
-        <v>0.006</v>
+        <v>0.0059</v>
       </c>
       <c r="D232">
-        <v>0.0403</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4389,13 +4389,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.0494</v>
+        <v>0.0488</v>
       </c>
       <c r="C233">
         <v>0.0064</v>
       </c>
       <c r="D233">
-        <v>0.043</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4403,13 +4403,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.0522</v>
+        <v>0.0517</v>
       </c>
       <c r="C234">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="D234">
-        <v>0.0459</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4417,13 +4417,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.056</v>
+        <v>0.0554</v>
       </c>
       <c r="C235">
         <v>0.0065</v>
       </c>
       <c r="D235">
-        <v>0.0495</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4431,13 +4431,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.06</v>
+        <v>0.0593</v>
       </c>
       <c r="C236">
         <v>0.0067</v>
       </c>
       <c r="D236">
-        <v>0.0532</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4445,13 +4445,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.0645</v>
+        <v>0.0638</v>
       </c>
       <c r="C237">
         <v>0.0069</v>
       </c>
       <c r="D237">
-        <v>0.0576</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4459,13 +4459,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.0698</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C238">
-        <v>0.0072</v>
+        <v>0.0071</v>
       </c>
       <c r="D238">
-        <v>0.0626</v>
+        <v>0.0619</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4473,13 +4473,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.0761</v>
+        <v>0.0752</v>
       </c>
       <c r="C239">
-        <v>0.0078</v>
+        <v>0.0077</v>
       </c>
       <c r="D239">
-        <v>0.0683</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4487,13 +4487,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.0834</v>
+        <v>0.0825</v>
       </c>
       <c r="C240">
-        <v>0.0089</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D240">
-        <v>0.0745</v>
+        <v>0.0737</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4501,13 +4501,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.09089999999999999</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="C241">
-        <v>0.0101</v>
+        <v>0.01</v>
       </c>
       <c r="D241">
-        <v>0.0808</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4515,13 +4515,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.0983</v>
+        <v>0.0973</v>
       </c>
       <c r="C242">
-        <v>0.0112</v>
+        <v>0.0111</v>
       </c>
       <c r="D242">
-        <v>0.0871</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4529,13 +4529,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.1053</v>
+        <v>0.1042</v>
       </c>
       <c r="C243">
-        <v>0.0121</v>
+        <v>0.012</v>
       </c>
       <c r="D243">
-        <v>0.09329999999999999</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4543,13 +4543,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.1128</v>
+        <v>0.1117</v>
       </c>
       <c r="C244">
-        <v>0.0131</v>
+        <v>0.013</v>
       </c>
       <c r="D244">
-        <v>0.0997</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4557,13 +4557,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1198</v>
+        <v>0.1186</v>
       </c>
       <c r="C245">
-        <v>0.0135</v>
+        <v>0.0134</v>
       </c>
       <c r="D245">
-        <v>0.1063</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4571,13 +4571,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.1255</v>
+        <v>0.1242</v>
       </c>
       <c r="C246">
         <v>0.013</v>
       </c>
       <c r="D246">
-        <v>0.1124</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4585,13 +4585,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.1322</v>
+        <v>0.1309</v>
       </c>
       <c r="C247">
         <v>0.0132</v>
       </c>
       <c r="D247">
-        <v>0.119</v>
+        <v>0.1177</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4599,13 +4599,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.1381</v>
+        <v>0.1367</v>
       </c>
       <c r="C248">
-        <v>0.0128</v>
+        <v>0.0127</v>
       </c>
       <c r="D248">
-        <v>0.1253</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4613,13 +4613,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.1439</v>
+        <v>0.1425</v>
       </c>
       <c r="C249">
         <v>0.0122</v>
       </c>
       <c r="D249">
-        <v>0.1317</v>
+        <v>0.1303</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4627,13 +4627,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.15</v>
+        <v>0.1486</v>
       </c>
       <c r="C250">
-        <v>0.0119</v>
+        <v>0.0118</v>
       </c>
       <c r="D250">
-        <v>0.1381</v>
+        <v>0.1367</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2014 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2014 - Diaria.xlsx
@@ -1155,13 +1155,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3132</v>
+        <v>0.3135</v>
       </c>
       <c r="C2">
         <v>0.0233</v>
       </c>
       <c r="D2">
-        <v>0.2899</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3143</v>
+        <v>0.3147</v>
       </c>
       <c r="C3">
         <v>0.0229</v>
       </c>
       <c r="D3">
-        <v>0.2914</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3154</v>
+        <v>0.3158</v>
       </c>
       <c r="C4">
         <v>0.0225</v>
       </c>
       <c r="D4">
-        <v>0.2929</v>
+        <v>0.2933</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1197,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3171</v>
+        <v>0.3175</v>
       </c>
       <c r="C5">
         <v>0.0222</v>
       </c>
       <c r="D5">
-        <v>0.2949</v>
+        <v>0.2953</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3192</v>
+        <v>0.3196</v>
       </c>
       <c r="C6">
         <v>0.0222</v>
       </c>
       <c r="D6">
-        <v>0.297</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1225,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.321</v>
+        <v>0.3214</v>
       </c>
       <c r="C7">
         <v>0.0219</v>
       </c>
       <c r="D7">
-        <v>0.2991</v>
+        <v>0.2995</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3227</v>
+        <v>0.3231</v>
       </c>
       <c r="C8">
         <v>0.0214</v>
       </c>
       <c r="D8">
-        <v>0.3012</v>
+        <v>0.3017</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3237</v>
+        <v>0.3242</v>
       </c>
       <c r="C9">
         <v>0.0207</v>
       </c>
       <c r="D9">
-        <v>0.303</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,13 +1267,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3249</v>
+        <v>0.3254</v>
       </c>
       <c r="C10">
-        <v>0.0204</v>
+        <v>0.0203</v>
       </c>
       <c r="D10">
-        <v>0.3046</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1281,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3258</v>
+        <v>0.3262</v>
       </c>
       <c r="C11">
         <v>0.0199</v>
       </c>
       <c r="D11">
-        <v>0.3059</v>
+        <v>0.3064</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1295,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3269</v>
+        <v>0.3274</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="D12">
-        <v>0.3069</v>
+        <v>0.3074</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3281</v>
+        <v>0.3285</v>
       </c>
       <c r="C13">
         <v>0.0198</v>
       </c>
       <c r="D13">
-        <v>0.3082</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1323,13 +1323,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3307</v>
+        <v>0.3312</v>
       </c>
       <c r="C14">
         <v>0.021</v>
       </c>
       <c r="D14">
-        <v>0.3097</v>
+        <v>0.3102</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3332</v>
+        <v>0.3337</v>
       </c>
       <c r="C15">
         <v>0.0221</v>
       </c>
       <c r="D15">
-        <v>0.3111</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1351,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3354</v>
+        <v>0.3359</v>
       </c>
       <c r="C16">
-        <v>0.0231</v>
+        <v>0.023</v>
       </c>
       <c r="D16">
-        <v>0.3124</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1365,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3381</v>
+        <v>0.3385</v>
       </c>
       <c r="C17">
         <v>0.0245</v>
       </c>
       <c r="D17">
-        <v>0.3136</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3411</v>
+        <v>0.3416</v>
       </c>
       <c r="C18">
         <v>0.0265</v>
       </c>
       <c r="D18">
-        <v>0.3146</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3444</v>
+        <v>0.3449</v>
       </c>
       <c r="C19">
-        <v>0.0291</v>
+        <v>0.029</v>
       </c>
       <c r="D19">
-        <v>0.3153</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1407,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3465</v>
+        <v>0.3469</v>
       </c>
       <c r="C20">
         <v>0.031</v>
       </c>
       <c r="D20">
-        <v>0.3155</v>
+        <v>0.3159</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1421,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3475</v>
+        <v>0.3479</v>
       </c>
       <c r="C21">
-        <v>0.0325</v>
+        <v>0.0324</v>
       </c>
       <c r="D21">
-        <v>0.315</v>
+        <v>0.3155</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3477</v>
+        <v>0.3481</v>
       </c>
       <c r="C22">
         <v>0.0335</v>
       </c>
       <c r="D22">
-        <v>0.3142</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1449,13 +1449,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3478</v>
+        <v>0.3482</v>
       </c>
       <c r="C23">
         <v>0.0346</v>
       </c>
       <c r="D23">
-        <v>0.3132</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3493</v>
+        <v>0.3497</v>
       </c>
       <c r="C24">
         <v>0.0365</v>
       </c>
       <c r="D24">
-        <v>0.3128</v>
+        <v>0.3132</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1477,13 +1477,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3513</v>
+        <v>0.3517</v>
       </c>
       <c r="C25">
         <v>0.0387</v>
       </c>
       <c r="D25">
-        <v>0.3126</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1491,13 +1491,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3537</v>
+        <v>0.3541</v>
       </c>
       <c r="C26">
         <v>0.041</v>
       </c>
       <c r="D26">
-        <v>0.3127</v>
+        <v>0.3131</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3569</v>
+        <v>0.3573</v>
       </c>
       <c r="C27">
-        <v>0.0438</v>
+        <v>0.0437</v>
       </c>
       <c r="D27">
-        <v>0.3132</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1519,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3601</v>
+        <v>0.3605</v>
       </c>
       <c r="C28">
         <v>0.0463</v>
       </c>
       <c r="D28">
-        <v>0.3138</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3629</v>
+        <v>0.3633</v>
       </c>
       <c r="C29">
-        <v>0.0481</v>
+        <v>0.048</v>
       </c>
       <c r="D29">
-        <v>0.3149</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3674</v>
+        <v>0.3678</v>
       </c>
       <c r="C30">
-        <v>0.0509</v>
+        <v>0.0508</v>
       </c>
       <c r="D30">
-        <v>0.3165</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3724</v>
+        <v>0.3728</v>
       </c>
       <c r="C31">
         <v>0.0541</v>
       </c>
       <c r="D31">
-        <v>0.3183</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3764</v>
+        <v>0.3769</v>
       </c>
       <c r="C32">
         <v>0.0561</v>
       </c>
       <c r="D32">
-        <v>0.3203</v>
+        <v>0.3208</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1589,13 +1589,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.381</v>
+        <v>0.3814</v>
       </c>
       <c r="C33">
-        <v>0.0586</v>
+        <v>0.0585</v>
       </c>
       <c r="D33">
-        <v>0.3224</v>
+        <v>0.3228</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3844</v>
+        <v>0.3848</v>
       </c>
       <c r="C34">
         <v>0.0599</v>
       </c>
       <c r="D34">
-        <v>0.3245</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1617,13 +1617,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.388</v>
+        <v>0.3885</v>
       </c>
       <c r="C35">
         <v>0.0612</v>
       </c>
       <c r="D35">
-        <v>0.3269</v>
+        <v>0.3273</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1631,13 +1631,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3912</v>
+        <v>0.3917</v>
       </c>
       <c r="C36">
         <v>0.0622</v>
       </c>
       <c r="D36">
-        <v>0.329</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1645,13 +1645,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3944</v>
+        <v>0.3948</v>
       </c>
       <c r="C37">
         <v>0.06320000000000001</v>
       </c>
       <c r="D37">
-        <v>0.3312</v>
+        <v>0.3317</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.397</v>
+        <v>0.3975</v>
       </c>
       <c r="C38">
         <v>0.0635</v>
       </c>
       <c r="D38">
-        <v>0.3334</v>
+        <v>0.3339</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3993</v>
+        <v>0.3999</v>
       </c>
       <c r="C39">
         <v>0.0639</v>
       </c>
       <c r="D39">
-        <v>0.3354</v>
+        <v>0.3359</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4023</v>
+        <v>0.4029</v>
       </c>
       <c r="C40">
         <v>0.0648</v>
       </c>
       <c r="D40">
-        <v>0.3376</v>
+        <v>0.3381</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4054</v>
+        <v>0.406</v>
       </c>
       <c r="C41">
         <v>0.06560000000000001</v>
       </c>
       <c r="D41">
-        <v>0.3398</v>
+        <v>0.3404</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1715,13 +1715,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4084</v>
+        <v>0.409</v>
       </c>
       <c r="C42">
         <v>0.0664</v>
       </c>
       <c r="D42">
-        <v>0.342</v>
+        <v>0.3425</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1729,13 +1729,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4105</v>
+        <v>0.4111</v>
       </c>
       <c r="C43">
         <v>0.06660000000000001</v>
       </c>
       <c r="D43">
-        <v>0.3439</v>
+        <v>0.3445</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1743,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4119</v>
+        <v>0.4125</v>
       </c>
       <c r="C44">
-        <v>0.0664</v>
+        <v>0.0665</v>
       </c>
       <c r="D44">
-        <v>0.3455</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1757,13 +1757,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4124</v>
+        <v>0.413</v>
       </c>
       <c r="C45">
         <v>0.066</v>
       </c>
       <c r="D45">
-        <v>0.3464</v>
+        <v>0.3469</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1771,13 +1771,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4121</v>
+        <v>0.4127</v>
       </c>
       <c r="C46">
-        <v>0.0653</v>
+        <v>0.0654</v>
       </c>
       <c r="D46">
-        <v>0.3467</v>
+        <v>0.3473</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1785,13 +1785,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4112</v>
+        <v>0.4118</v>
       </c>
       <c r="C47">
-        <v>0.0646</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D47">
-        <v>0.3466</v>
+        <v>0.3471</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1799,13 +1799,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4103</v>
+        <v>0.4109</v>
       </c>
       <c r="C48">
-        <v>0.0644</v>
+        <v>0.0645</v>
       </c>
       <c r="D48">
-        <v>0.3459</v>
+        <v>0.3465</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1813,13 +1813,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4108</v>
+        <v>0.4115</v>
       </c>
       <c r="C49">
         <v>0.0659</v>
       </c>
       <c r="D49">
-        <v>0.345</v>
+        <v>0.3456</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1827,13 +1827,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4106</v>
+        <v>0.4112</v>
       </c>
       <c r="C50">
-        <v>0.0665</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D50">
-        <v>0.344</v>
+        <v>0.3446</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1841,13 +1841,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.41</v>
+        <v>0.4106</v>
       </c>
       <c r="C51">
         <v>0.06710000000000001</v>
       </c>
       <c r="D51">
-        <v>0.3429</v>
+        <v>0.3435</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1855,13 +1855,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4093</v>
+        <v>0.4099</v>
       </c>
       <c r="C52">
         <v>0.068</v>
       </c>
       <c r="D52">
-        <v>0.3413</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1869,13 +1869,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4079</v>
+        <v>0.4085</v>
       </c>
       <c r="C53">
-        <v>0.0689</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D53">
-        <v>0.339</v>
+        <v>0.3395</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1883,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4065</v>
+        <v>0.4071</v>
       </c>
       <c r="C54">
         <v>0.0701</v>
       </c>
       <c r="D54">
-        <v>0.3364</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1897,13 +1897,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4046</v>
+        <v>0.4052</v>
       </c>
       <c r="C55">
         <v>0.07140000000000001</v>
       </c>
       <c r="D55">
-        <v>0.3333</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1911,13 +1911,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.403</v>
+        <v>0.4035</v>
       </c>
       <c r="C56">
         <v>0.073</v>
       </c>
       <c r="D56">
-        <v>0.33</v>
+        <v>0.3305</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1925,13 +1925,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4002</v>
+        <v>0.4008</v>
       </c>
       <c r="C57">
         <v>0.0738</v>
       </c>
       <c r="D57">
-        <v>0.3264</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1939,13 +1939,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3968</v>
+        <v>0.3973</v>
       </c>
       <c r="C58">
-        <v>0.0742</v>
+        <v>0.0743</v>
       </c>
       <c r="D58">
-        <v>0.3226</v>
+        <v>0.3231</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1953,13 +1953,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.393</v>
+        <v>0.3935</v>
       </c>
       <c r="C59">
         <v>0.0746</v>
       </c>
       <c r="D59">
-        <v>0.3184</v>
+        <v>0.3189</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1967,13 +1967,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3881</v>
+        <v>0.3886</v>
       </c>
       <c r="C60">
         <v>0.0745</v>
       </c>
       <c r="D60">
-        <v>0.3137</v>
+        <v>0.3142</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1981,13 +1981,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3833</v>
+        <v>0.3838</v>
       </c>
       <c r="C61">
         <v>0.0747</v>
       </c>
       <c r="D61">
-        <v>0.3086</v>
+        <v>0.3091</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1995,13 +1995,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.378</v>
+        <v>0.3785</v>
       </c>
       <c r="C62">
         <v>0.07480000000000001</v>
       </c>
       <c r="D62">
-        <v>0.3032</v>
+        <v>0.3037</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2009,13 +2009,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3728</v>
+        <v>0.3733</v>
       </c>
       <c r="C63">
         <v>0.0752</v>
       </c>
       <c r="D63">
-        <v>0.2976</v>
+        <v>0.2981</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2023,13 +2023,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.367</v>
+        <v>0.3675</v>
       </c>
       <c r="C64">
-        <v>0.07530000000000001</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D64">
-        <v>0.2917</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2037,13 +2037,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3612</v>
+        <v>0.3617</v>
       </c>
       <c r="C65">
         <v>0.0755</v>
       </c>
       <c r="D65">
-        <v>0.2857</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2051,13 +2051,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3552</v>
+        <v>0.3557</v>
       </c>
       <c r="C66">
-        <v>0.0755</v>
+        <v>0.0756</v>
       </c>
       <c r="D66">
-        <v>0.2797</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2065,13 +2065,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3496</v>
+        <v>0.3501</v>
       </c>
       <c r="C67">
-        <v>0.0756</v>
+        <v>0.0757</v>
       </c>
       <c r="D67">
-        <v>0.274</v>
+        <v>0.2744</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2079,13 +2079,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3438</v>
+        <v>0.3442</v>
       </c>
       <c r="C68">
         <v>0.0752</v>
       </c>
       <c r="D68">
-        <v>0.2687</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2093,13 +2093,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3377</v>
+        <v>0.3381</v>
       </c>
       <c r="C69">
-        <v>0.0741</v>
+        <v>0.0742</v>
       </c>
       <c r="D69">
-        <v>0.2635</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2107,13 +2107,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3301</v>
+        <v>0.3305</v>
       </c>
       <c r="C70">
         <v>0.0722</v>
       </c>
       <c r="D70">
-        <v>0.2579</v>
+        <v>0.2583</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2121,13 +2121,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3232</v>
+        <v>0.3236</v>
       </c>
       <c r="C71">
-        <v>0.0704</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="D71">
-        <v>0.2528</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2135,13 +2135,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3165</v>
+        <v>0.317</v>
       </c>
       <c r="C72">
-        <v>0.06850000000000001</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="D72">
-        <v>0.248</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2149,13 +2149,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3115</v>
+        <v>0.312</v>
       </c>
       <c r="C73">
         <v>0.0675</v>
       </c>
       <c r="D73">
-        <v>0.244</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2163,13 +2163,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3065</v>
+        <v>0.307</v>
       </c>
       <c r="C74">
         <v>0.0663</v>
       </c>
       <c r="D74">
-        <v>0.2402</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2177,13 +2177,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3014</v>
+        <v>0.3018</v>
       </c>
       <c r="C75">
         <v>0.0644</v>
       </c>
       <c r="D75">
-        <v>0.237</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2964</v>
+        <v>0.2968</v>
       </c>
       <c r="C76">
         <v>0.0623</v>
       </c>
       <c r="D76">
-        <v>0.2341</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2926</v>
+        <v>0.293</v>
       </c>
       <c r="C77">
         <v>0.0609</v>
       </c>
       <c r="D77">
-        <v>0.2317</v>
+        <v>0.2321</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2899</v>
+        <v>0.2903</v>
       </c>
       <c r="C78">
         <v>0.06</v>
       </c>
       <c r="D78">
-        <v>0.2299</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2872</v>
+        <v>0.2876</v>
       </c>
       <c r="C79">
         <v>0.0586</v>
       </c>
       <c r="D79">
-        <v>0.2286</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2856</v>
+        <v>0.2861</v>
       </c>
       <c r="C80">
         <v>0.0576</v>
       </c>
       <c r="D80">
-        <v>0.228</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2839</v>
+        <v>0.2844</v>
       </c>
       <c r="C81">
         <v>0.056</v>
       </c>
       <c r="D81">
-        <v>0.2279</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2824</v>
+        <v>0.2829</v>
       </c>
       <c r="C82">
         <v>0.0544</v>
       </c>
       <c r="D82">
-        <v>0.2281</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2816</v>
+        <v>0.2821</v>
       </c>
       <c r="C83">
         <v>0.0528</v>
       </c>
       <c r="D83">
-        <v>0.2288</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2811</v>
+        <v>0.2816</v>
       </c>
       <c r="C84">
         <v>0.0513</v>
       </c>
       <c r="D84">
-        <v>0.2298</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2804</v>
+        <v>0.2809</v>
       </c>
       <c r="C85">
-        <v>0.0495</v>
+        <v>0.0496</v>
       </c>
       <c r="D85">
-        <v>0.2308</v>
+        <v>0.2313</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2798</v>
+        <v>0.2803</v>
       </c>
       <c r="C86">
-        <v>0.0477</v>
+        <v>0.0478</v>
       </c>
       <c r="D86">
-        <v>0.2321</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2796</v>
+        <v>0.2801</v>
       </c>
       <c r="C87">
-        <v>0.0463</v>
+        <v>0.0464</v>
       </c>
       <c r="D87">
-        <v>0.2333</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2798</v>
+        <v>0.2803</v>
       </c>
       <c r="C88">
         <v>0.0452</v>
       </c>
       <c r="D88">
-        <v>0.2346</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2796</v>
+        <v>0.2801</v>
       </c>
       <c r="C89">
         <v>0.0438</v>
       </c>
       <c r="D89">
-        <v>0.2358</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2387,13 +2387,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2801</v>
+        <v>0.2806</v>
       </c>
       <c r="C90">
         <v>0.0428</v>
       </c>
       <c r="D90">
-        <v>0.2372</v>
+        <v>0.2377</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2401,13 +2401,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.281</v>
+        <v>0.2815</v>
       </c>
       <c r="C91">
         <v>0.0424</v>
       </c>
       <c r="D91">
-        <v>0.2386</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2415,13 +2415,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2815</v>
+        <v>0.282</v>
       </c>
       <c r="C92">
         <v>0.0419</v>
       </c>
       <c r="D92">
-        <v>0.2396</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2808</v>
+        <v>0.2813</v>
       </c>
       <c r="C93">
         <v>0.0406</v>
       </c>
       <c r="D93">
-        <v>0.2403</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2801</v>
+        <v>0.2806</v>
       </c>
       <c r="C94">
         <v>0.0394</v>
       </c>
       <c r="D94">
-        <v>0.2407</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2457,13 +2457,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.28</v>
+        <v>0.2804</v>
       </c>
       <c r="C95">
         <v>0.0391</v>
       </c>
       <c r="D95">
-        <v>0.2409</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2471,13 +2471,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2792</v>
+        <v>0.2796</v>
       </c>
       <c r="C96">
         <v>0.0383</v>
       </c>
       <c r="D96">
-        <v>0.2409</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2485,13 +2485,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2776</v>
+        <v>0.2781</v>
       </c>
       <c r="C97">
         <v>0.0372</v>
       </c>
       <c r="D97">
-        <v>0.2405</v>
+        <v>0.2409</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2499,13 +2499,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2758</v>
+        <v>0.2762</v>
       </c>
       <c r="C98">
         <v>0.036</v>
       </c>
       <c r="D98">
-        <v>0.2398</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.274</v>
+        <v>0.2744</v>
       </c>
       <c r="C99">
         <v>0.0352</v>
       </c>
       <c r="D99">
-        <v>0.2388</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2527,13 +2527,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2716</v>
+        <v>0.272</v>
       </c>
       <c r="C100">
-        <v>0.0342</v>
+        <v>0.0343</v>
       </c>
       <c r="D100">
-        <v>0.2374</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2541,13 +2541,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2692</v>
+        <v>0.2696</v>
       </c>
       <c r="C101">
-        <v>0.0333</v>
+        <v>0.0334</v>
       </c>
       <c r="D101">
-        <v>0.2359</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2674</v>
+        <v>0.2677</v>
       </c>
       <c r="C102">
-        <v>0.0328</v>
+        <v>0.0329</v>
       </c>
       <c r="D102">
-        <v>0.2345</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2654</v>
+        <v>0.2658</v>
       </c>
       <c r="C103">
         <v>0.0324</v>
       </c>
       <c r="D103">
-        <v>0.233</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2583,13 +2583,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2636</v>
+        <v>0.264</v>
       </c>
       <c r="C104">
         <v>0.032</v>
       </c>
       <c r="D104">
-        <v>0.2316</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2597,13 +2597,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2623</v>
+        <v>0.2627</v>
       </c>
       <c r="C105">
         <v>0.032</v>
       </c>
       <c r="D105">
-        <v>0.2304</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2611,13 +2611,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2613</v>
+        <v>0.2616</v>
       </c>
       <c r="C106">
-        <v>0.0321</v>
+        <v>0.0322</v>
       </c>
       <c r="D106">
-        <v>0.2292</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2625,13 +2625,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2598</v>
+        <v>0.2602</v>
       </c>
       <c r="C107">
-        <v>0.0319</v>
+        <v>0.032</v>
       </c>
       <c r="D107">
-        <v>0.2279</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2639,13 +2639,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2581</v>
+        <v>0.2584</v>
       </c>
       <c r="C108">
         <v>0.0316</v>
       </c>
       <c r="D108">
-        <v>0.2265</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2653,13 +2653,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2567</v>
+        <v>0.2571</v>
       </c>
       <c r="C109">
         <v>0.0314</v>
       </c>
       <c r="D109">
-        <v>0.2254</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2667,13 +2667,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2562</v>
+        <v>0.2566</v>
       </c>
       <c r="C110">
         <v>0.0315</v>
       </c>
       <c r="D110">
-        <v>0.2247</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2681,13 +2681,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2556</v>
+        <v>0.2559</v>
       </c>
       <c r="C111">
-        <v>0.0312</v>
+        <v>0.0313</v>
       </c>
       <c r="D111">
-        <v>0.2243</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2695,13 +2695,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2548</v>
+        <v>0.2552</v>
       </c>
       <c r="C112">
         <v>0.0305</v>
       </c>
       <c r="D112">
-        <v>0.2244</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2709,13 +2709,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2541</v>
+        <v>0.2545</v>
       </c>
       <c r="C113">
         <v>0.0294</v>
       </c>
       <c r="D113">
-        <v>0.2247</v>
+        <v>0.2251</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2723,13 +2723,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2537</v>
+        <v>0.254</v>
       </c>
       <c r="C114">
         <v>0.028</v>
       </c>
       <c r="D114">
-        <v>0.2257</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2737,13 +2737,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.254</v>
+        <v>0.2543</v>
       </c>
       <c r="C115">
         <v>0.0268</v>
       </c>
       <c r="D115">
-        <v>0.2272</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2548</v>
+        <v>0.2552</v>
       </c>
       <c r="C116">
         <v>0.0257</v>
       </c>
       <c r="D116">
-        <v>0.2292</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2765,13 +2765,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2561</v>
+        <v>0.2565</v>
       </c>
       <c r="C117">
         <v>0.0246</v>
       </c>
       <c r="D117">
-        <v>0.2316</v>
+        <v>0.2319</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2779,13 +2779,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2581</v>
+        <v>0.2585</v>
       </c>
       <c r="C118">
-        <v>0.0237</v>
+        <v>0.0238</v>
       </c>
       <c r="D118">
-        <v>0.2344</v>
+        <v>0.2348</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2605</v>
+        <v>0.2609</v>
       </c>
       <c r="C119">
         <v>0.0228</v>
       </c>
       <c r="D119">
-        <v>0.2377</v>
+        <v>0.2381</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.264</v>
+        <v>0.2643</v>
       </c>
       <c r="C120">
-        <v>0.0224</v>
+        <v>0.0225</v>
       </c>
       <c r="D120">
-        <v>0.2416</v>
+        <v>0.2419</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2674</v>
+        <v>0.2678</v>
       </c>
       <c r="C121">
-        <v>0.0217</v>
+        <v>0.0218</v>
       </c>
       <c r="D121">
-        <v>0.2457</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2712</v>
+        <v>0.2716</v>
       </c>
       <c r="C122">
         <v>0.0208</v>
       </c>
       <c r="D122">
-        <v>0.2505</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2761</v>
+        <v>0.2765</v>
       </c>
       <c r="C123">
         <v>0.0202</v>
       </c>
       <c r="D123">
-        <v>0.2559</v>
+        <v>0.2563</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2812</v>
+        <v>0.2816</v>
       </c>
       <c r="C124">
         <v>0.0195</v>
       </c>
       <c r="D124">
-        <v>0.2617</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.286</v>
+        <v>0.2864</v>
       </c>
       <c r="C125">
         <v>0.0184</v>
       </c>
       <c r="D125">
-        <v>0.2676</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2891,13 +2891,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2909</v>
+        <v>0.2914</v>
       </c>
       <c r="C126">
         <v>0.0172</v>
       </c>
       <c r="D126">
-        <v>0.2738</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.296</v>
+        <v>0.2964</v>
       </c>
       <c r="C127">
         <v>0.016</v>
       </c>
       <c r="D127">
-        <v>0.2799</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3007</v>
+        <v>0.3011</v>
       </c>
       <c r="C128">
         <v>0.0147</v>
       </c>
       <c r="D128">
-        <v>0.286</v>
+        <v>0.2864</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3057</v>
+        <v>0.3062</v>
       </c>
       <c r="C129">
         <v>0.0137</v>
       </c>
       <c r="D129">
-        <v>0.292</v>
+        <v>0.2925</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2947,13 +2947,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3103</v>
+        <v>0.3108</v>
       </c>
       <c r="C130">
         <v>0.0126</v>
       </c>
       <c r="D130">
-        <v>0.2977</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.314</v>
+        <v>0.3144</v>
       </c>
       <c r="C131">
         <v>0.011</v>
       </c>
       <c r="D131">
-        <v>0.303</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2975,13 +2975,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3182</v>
+        <v>0.3187</v>
       </c>
       <c r="C132">
         <v>0.0103</v>
       </c>
       <c r="D132">
-        <v>0.3079</v>
+        <v>0.3083</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3236</v>
+        <v>0.3241</v>
       </c>
       <c r="C133">
         <v>0.0107</v>
       </c>
       <c r="D133">
-        <v>0.3129</v>
+        <v>0.3134</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3285</v>
+        <v>0.3289</v>
       </c>
       <c r="C134">
         <v>0.0111</v>
       </c>
       <c r="D134">
-        <v>0.3174</v>
+        <v>0.3179</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3329</v>
+        <v>0.3333</v>
       </c>
       <c r="C135">
         <v>0.0115</v>
       </c>
       <c r="D135">
-        <v>0.3214</v>
+        <v>0.3219</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3363</v>
+        <v>0.3368</v>
       </c>
       <c r="C136">
         <v>0.0115</v>
       </c>
       <c r="D136">
-        <v>0.3248</v>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.34</v>
+        <v>0.3404</v>
       </c>
       <c r="C137">
         <v>0.0121</v>
       </c>
       <c r="D137">
-        <v>0.3279</v>
+        <v>0.3283</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3424</v>
+        <v>0.3428</v>
       </c>
       <c r="C138">
         <v>0.0122</v>
       </c>
       <c r="D138">
-        <v>0.3302</v>
+        <v>0.3307</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3453</v>
+        <v>0.3457</v>
       </c>
       <c r="C139">
         <v>0.0131</v>
       </c>
       <c r="D139">
-        <v>0.3321</v>
+        <v>0.3326</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3474</v>
+        <v>0.3478</v>
       </c>
       <c r="C140">
         <v>0.0135</v>
       </c>
       <c r="D140">
-        <v>0.3339</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3495</v>
+        <v>0.3499</v>
       </c>
       <c r="C141">
         <v>0.0139</v>
       </c>
       <c r="D141">
-        <v>0.3356</v>
+        <v>0.3361</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3503</v>
+        <v>0.3508</v>
       </c>
       <c r="C142">
         <v>0.0138</v>
       </c>
       <c r="D142">
-        <v>0.3365</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3511</v>
+        <v>0.3515</v>
       </c>
       <c r="C143">
-        <v>0.0137</v>
+        <v>0.0136</v>
       </c>
       <c r="D143">
-        <v>0.3374</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3517</v>
+        <v>0.3521</v>
       </c>
       <c r="C144">
         <v>0.0137</v>
       </c>
       <c r="D144">
-        <v>0.338</v>
+        <v>0.3385</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3523</v>
+        <v>0.3527</v>
       </c>
       <c r="C145">
         <v>0.0141</v>
       </c>
       <c r="D145">
-        <v>0.3381</v>
+        <v>0.3386</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3171,13 +3171,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3519</v>
+        <v>0.3523</v>
       </c>
       <c r="C146">
         <v>0.0144</v>
       </c>
       <c r="D146">
-        <v>0.3375</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3524</v>
+        <v>0.3528</v>
       </c>
       <c r="C147">
         <v>0.0149</v>
       </c>
       <c r="D147">
-        <v>0.3374</v>
+        <v>0.3379</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3536</v>
+        <v>0.354</v>
       </c>
       <c r="C148">
         <v>0.0154</v>
       </c>
       <c r="D148">
-        <v>0.3381</v>
+        <v>0.3386</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.354</v>
+        <v>0.3545</v>
       </c>
       <c r="C149">
         <v>0.0157</v>
       </c>
       <c r="D149">
-        <v>0.3383</v>
+        <v>0.3388</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3541</v>
+        <v>0.3545</v>
       </c>
       <c r="C150">
         <v>0.0161</v>
       </c>
       <c r="D150">
-        <v>0.338</v>
+        <v>0.3384</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="C151">
         <v>0.017</v>
       </c>
       <c r="D151">
-        <v>0.3372</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.354</v>
+        <v>0.3544</v>
       </c>
       <c r="C152">
-        <v>0.0174</v>
+        <v>0.0173</v>
       </c>
       <c r="D152">
-        <v>0.3366</v>
+        <v>0.3371</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3522</v>
+        <v>0.3526</v>
       </c>
       <c r="C153">
-        <v>0.017</v>
+        <v>0.0169</v>
       </c>
       <c r="D153">
-        <v>0.3353</v>
+        <v>0.3357</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.3536</v>
+        <v>0.354</v>
       </c>
       <c r="C154">
         <v>0.0175</v>
       </c>
       <c r="D154">
-        <v>0.336</v>
+        <v>0.3365</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3541</v>
+        <v>0.3545</v>
       </c>
       <c r="C155">
         <v>0.0177</v>
       </c>
       <c r="D155">
-        <v>0.3363</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3547</v>
+        <v>0.3551</v>
       </c>
       <c r="C156">
         <v>0.0179</v>
       </c>
       <c r="D156">
-        <v>0.3367</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3548</v>
+        <v>0.3552</v>
       </c>
       <c r="C157">
-        <v>0.018</v>
+        <v>0.0179</v>
       </c>
       <c r="D157">
-        <v>0.3368</v>
+        <v>0.3372</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3545</v>
+        <v>0.3549</v>
       </c>
       <c r="C158">
         <v>0.0176</v>
       </c>
       <c r="D158">
-        <v>0.3368</v>
+        <v>0.3373</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3525</v>
+        <v>0.3529</v>
       </c>
       <c r="C159">
         <v>0.0159</v>
       </c>
       <c r="D159">
-        <v>0.3366</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3505</v>
+        <v>0.3508</v>
       </c>
       <c r="C160">
         <v>0.0144</v>
       </c>
       <c r="D160">
-        <v>0.336</v>
+        <v>0.3365</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3483</v>
+        <v>0.3487</v>
       </c>
       <c r="C161">
         <v>0.0133</v>
       </c>
       <c r="D161">
-        <v>0.335</v>
+        <v>0.3354</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3466</v>
+        <v>0.3469</v>
       </c>
       <c r="C162">
-        <v>0.0129</v>
+        <v>0.0128</v>
       </c>
       <c r="D162">
-        <v>0.3337</v>
+        <v>0.3341</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3443</v>
+        <v>0.3446</v>
       </c>
       <c r="C163">
-        <v>0.0128</v>
+        <v>0.0127</v>
       </c>
       <c r="D163">
-        <v>0.3315</v>
+        <v>0.3319</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3414</v>
+        <v>0.3418</v>
       </c>
       <c r="C164">
         <v>0.0124</v>
       </c>
       <c r="D164">
-        <v>0.329</v>
+        <v>0.3294</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3437,13 +3437,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3385</v>
+        <v>0.3389</v>
       </c>
       <c r="C165">
-        <v>0.0121</v>
+        <v>0.012</v>
       </c>
       <c r="D165">
-        <v>0.3265</v>
+        <v>0.3268</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3451,13 +3451,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.3358</v>
+        <v>0.336</v>
       </c>
       <c r="C166">
         <v>0.0116</v>
       </c>
       <c r="D166">
-        <v>0.3241</v>
+        <v>0.3244</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3465,13 +3465,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3321</v>
+        <v>0.3324</v>
       </c>
       <c r="C167">
-        <v>0.0113</v>
+        <v>0.0112</v>
       </c>
       <c r="D167">
-        <v>0.3208</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3479,13 +3479,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.3278</v>
+        <v>0.3281</v>
       </c>
       <c r="C168">
         <v>0.0115</v>
       </c>
       <c r="D168">
-        <v>0.3163</v>
+        <v>0.3166</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3493,13 +3493,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.3236</v>
+        <v>0.3239</v>
       </c>
       <c r="C169">
-        <v>0.0119</v>
+        <v>0.0118</v>
       </c>
       <c r="D169">
-        <v>0.3118</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.32</v>
+        <v>0.3202</v>
       </c>
       <c r="C170">
         <v>0.0127</v>
       </c>
       <c r="D170">
-        <v>0.3072</v>
+        <v>0.3075</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3154</v>
+        <v>0.3156</v>
       </c>
       <c r="C171">
-        <v>0.0128</v>
+        <v>0.0127</v>
       </c>
       <c r="D171">
-        <v>0.3026</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3116</v>
+        <v>0.3118</v>
       </c>
       <c r="C172">
         <v>0.0134</v>
       </c>
       <c r="D172">
-        <v>0.2982</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3075</v>
+        <v>0.3077</v>
       </c>
       <c r="C173">
         <v>0.0139</v>
       </c>
       <c r="D173">
-        <v>0.2936</v>
+        <v>0.2938</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3027</v>
+        <v>0.3029</v>
       </c>
       <c r="C174">
         <v>0.0137</v>
       </c>
       <c r="D174">
-        <v>0.2889</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2974</v>
+        <v>0.2975</v>
       </c>
       <c r="C175">
         <v>0.0135</v>
       </c>
       <c r="D175">
-        <v>0.2838</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3591,13 +3591,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2919</v>
+        <v>0.2921</v>
       </c>
       <c r="C176">
         <v>0.0137</v>
       </c>
       <c r="D176">
-        <v>0.2782</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.286</v>
+        <v>0.2861</v>
       </c>
       <c r="C177">
         <v>0.0139</v>
       </c>
       <c r="D177">
-        <v>0.2721</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2791</v>
+        <v>0.2793</v>
       </c>
       <c r="C178">
         <v>0.0137</v>
       </c>
       <c r="D178">
-        <v>0.2654</v>
+        <v>0.2656</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3633,13 +3633,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2741</v>
+        <v>0.2743</v>
       </c>
       <c r="C179">
         <v>0.0148</v>
       </c>
       <c r="D179">
-        <v>0.2593</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3647,13 +3647,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2693</v>
+        <v>0.2694</v>
       </c>
       <c r="C180">
         <v>0.0163</v>
       </c>
       <c r="D180">
-        <v>0.253</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3661,13 +3661,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2636</v>
+        <v>0.2638</v>
       </c>
       <c r="C181">
         <v>0.0173</v>
       </c>
       <c r="D181">
-        <v>0.2463</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3675,13 +3675,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2591</v>
+        <v>0.2593</v>
       </c>
       <c r="C182">
         <v>0.0195</v>
       </c>
       <c r="D182">
-        <v>0.2396</v>
+        <v>0.2398</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3689,13 +3689,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2531</v>
+        <v>0.2533</v>
       </c>
       <c r="C183">
         <v>0.0206</v>
       </c>
       <c r="D183">
-        <v>0.2325</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3703,13 +3703,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.2474</v>
+        <v>0.2476</v>
       </c>
       <c r="C184">
         <v>0.0222</v>
       </c>
       <c r="D184">
-        <v>0.2252</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3717,13 +3717,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.241</v>
+        <v>0.2412</v>
       </c>
       <c r="C185">
         <v>0.0234</v>
       </c>
       <c r="D185">
-        <v>0.2176</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3731,13 +3731,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2348</v>
+        <v>0.235</v>
       </c>
       <c r="C186">
         <v>0.025</v>
       </c>
       <c r="D186">
-        <v>0.2098</v>
+        <v>0.2101</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3745,13 +3745,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2281</v>
+        <v>0.2283</v>
       </c>
       <c r="C187">
         <v>0.0264</v>
       </c>
       <c r="D187">
-        <v>0.2017</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3759,13 +3759,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2204</v>
+        <v>0.2206</v>
       </c>
       <c r="C188">
         <v>0.0269</v>
       </c>
       <c r="D188">
-        <v>0.1935</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3773,13 +3773,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2125</v>
+        <v>0.2128</v>
       </c>
       <c r="C189">
         <v>0.0273</v>
       </c>
       <c r="D189">
-        <v>0.1852</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3787,13 +3787,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2036</v>
+        <v>0.2039</v>
       </c>
       <c r="C190">
         <v>0.0268</v>
       </c>
       <c r="D190">
-        <v>0.1768</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3801,13 +3801,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.1957</v>
+        <v>0.196</v>
       </c>
       <c r="C191">
         <v>0.027</v>
       </c>
       <c r="D191">
-        <v>0.1687</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3815,13 +3815,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.1858</v>
+        <v>0.186</v>
       </c>
       <c r="C192">
         <v>0.0263</v>
       </c>
       <c r="D192">
-        <v>0.1595</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3829,13 +3829,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.1761</v>
+        <v>0.1764</v>
       </c>
       <c r="C193">
-        <v>0.0257</v>
+        <v>0.0258</v>
       </c>
       <c r="D193">
-        <v>0.1504</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3843,13 +3843,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.1641</v>
+        <v>0.1644</v>
       </c>
       <c r="C194">
         <v>0.025</v>
       </c>
       <c r="D194">
-        <v>0.1392</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3857,13 +3857,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.1528</v>
+        <v>0.1531</v>
       </c>
       <c r="C195">
         <v>0.0243</v>
       </c>
       <c r="D195">
-        <v>0.1285</v>
+        <v>0.1287</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3871,13 +3871,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.1431</v>
+        <v>0.1434</v>
       </c>
       <c r="C196">
         <v>0.0238</v>
       </c>
       <c r="D196">
-        <v>0.1193</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3885,13 +3885,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1336</v>
+        <v>0.1339</v>
       </c>
       <c r="C197">
         <v>0.0231</v>
       </c>
       <c r="D197">
-        <v>0.1105</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3899,13 +3899,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1255</v>
+        <v>0.1258</v>
       </c>
       <c r="C198">
-        <v>0.0231</v>
+        <v>0.0232</v>
       </c>
       <c r="D198">
-        <v>0.1024</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3913,13 +3913,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1183</v>
+        <v>0.1186</v>
       </c>
       <c r="C199">
-        <v>0.0228</v>
+        <v>0.0229</v>
       </c>
       <c r="D199">
-        <v>0.0954</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3927,13 +3927,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.1108</v>
+        <v>0.1111</v>
       </c>
       <c r="C200">
         <v>0.0221</v>
       </c>
       <c r="D200">
-        <v>0.0887</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3941,13 +3941,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.105</v>
+        <v>0.1053</v>
       </c>
       <c r="C201">
-        <v>0.0218</v>
+        <v>0.0219</v>
       </c>
       <c r="D201">
-        <v>0.0832</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3955,13 +3955,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.0979</v>
+        <v>0.0982</v>
       </c>
       <c r="C202">
         <v>0.0203</v>
       </c>
       <c r="D202">
-        <v>0.0776</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3969,13 +3969,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.09180000000000001</v>
+        <v>0.0921</v>
       </c>
       <c r="C203">
-        <v>0.0193</v>
+        <v>0.0194</v>
       </c>
       <c r="D203">
-        <v>0.0725</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3983,13 +3983,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.0858</v>
+        <v>0.0861</v>
       </c>
       <c r="C204">
-        <v>0.0181</v>
+        <v>0.0182</v>
       </c>
       <c r="D204">
-        <v>0.0677</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3997,13 +3997,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.0806</v>
+        <v>0.0809</v>
       </c>
       <c r="C205">
         <v>0.0173</v>
       </c>
       <c r="D205">
-        <v>0.0633</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4011,13 +4011,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.075</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="C206">
         <v>0.016</v>
       </c>
       <c r="D206">
-        <v>0.059</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4025,13 +4025,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.0699</v>
+        <v>0.0702</v>
       </c>
       <c r="C207">
         <v>0.0147</v>
       </c>
       <c r="D207">
-        <v>0.0552</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4039,13 +4039,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.0648</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="C208">
         <v>0.0134</v>
       </c>
       <c r="D208">
-        <v>0.0514</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4053,13 +4053,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.0602</v>
+        <v>0.0605</v>
       </c>
       <c r="C209">
-        <v>0.0121</v>
+        <v>0.0122</v>
       </c>
       <c r="D209">
-        <v>0.048</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4067,13 +4067,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.0573</v>
+        <v>0.0576</v>
       </c>
       <c r="C210">
-        <v>0.0117</v>
+        <v>0.0118</v>
       </c>
       <c r="D210">
-        <v>0.0456</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4081,13 +4081,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.0533</v>
+        <v>0.0536</v>
       </c>
       <c r="C211">
         <v>0.0105</v>
       </c>
       <c r="D211">
-        <v>0.0428</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4095,13 +4095,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.0512</v>
+        <v>0.0515</v>
       </c>
       <c r="C212">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
       <c r="D212">
-        <v>0.0412</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4109,13 +4109,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.0502</v>
+        <v>0.0504</v>
       </c>
       <c r="C213">
         <v>0.0097</v>
       </c>
       <c r="D213">
-        <v>0.0405</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4123,13 +4123,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.0495</v>
+        <v>0.0498</v>
       </c>
       <c r="C214">
         <v>0.009599999999999999</v>
       </c>
       <c r="D214">
-        <v>0.0399</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4137,13 +4137,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
       <c r="C215">
-        <v>0.0092</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="D215">
-        <v>0.0392</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4151,13 +4151,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.047</v>
+        <v>0.0473</v>
       </c>
       <c r="C216">
-        <v>0.008699999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D216">
-        <v>0.0383</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4165,13 +4165,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.0461</v>
+        <v>0.0463</v>
       </c>
       <c r="C217">
-        <v>0.0083</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="D217">
-        <v>0.0377</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4179,13 +4179,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.0453</v>
+        <v>0.0455</v>
       </c>
       <c r="C218">
         <v>0.008</v>
       </c>
       <c r="D218">
-        <v>0.0373</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4193,13 +4193,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.0425</v>
+        <v>0.0428</v>
       </c>
       <c r="C219">
         <v>0.0072</v>
       </c>
       <c r="D219">
-        <v>0.0354</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4207,13 +4207,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.04</v>
+        <v>0.0403</v>
       </c>
       <c r="C220">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="D220">
-        <v>0.0335</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4221,13 +4221,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.0371</v>
+        <v>0.0374</v>
       </c>
       <c r="C221">
         <v>0.0058</v>
       </c>
       <c r="D221">
-        <v>0.0313</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4235,13 +4235,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.0349</v>
+        <v>0.0351</v>
       </c>
       <c r="C222">
         <v>0.0052</v>
       </c>
       <c r="D222">
-        <v>0.0297</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4249,13 +4249,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.0335</v>
+        <v>0.0337</v>
       </c>
       <c r="C223">
         <v>0.0048</v>
       </c>
       <c r="D223">
-        <v>0.0287</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4263,13 +4263,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.0318</v>
+        <v>0.032</v>
       </c>
       <c r="C224">
         <v>0.004</v>
       </c>
       <c r="D224">
-        <v>0.0278</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4277,13 +4277,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.0311</v>
+        <v>0.0313</v>
       </c>
       <c r="C225">
         <v>0.0036</v>
       </c>
       <c r="D225">
-        <v>0.0275</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4291,13 +4291,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.0321</v>
+        <v>0.0324</v>
       </c>
       <c r="C226">
         <v>0.004</v>
       </c>
       <c r="D226">
-        <v>0.0281</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4305,13 +4305,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.0327</v>
+        <v>0.0329</v>
       </c>
       <c r="C227">
         <v>0.0039</v>
       </c>
       <c r="D227">
-        <v>0.0288</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4319,13 +4319,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.035</v>
+        <v>0.0353</v>
       </c>
       <c r="C228">
         <v>0.0045</v>
       </c>
       <c r="D228">
-        <v>0.0305</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4333,13 +4333,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.0374</v>
+        <v>0.0376</v>
       </c>
       <c r="C229">
         <v>0.0049</v>
       </c>
       <c r="D229">
-        <v>0.0325</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4347,13 +4347,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.039</v>
+        <v>0.0393</v>
       </c>
       <c r="C230">
         <v>0.0048</v>
       </c>
       <c r="D230">
-        <v>0.0343</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4361,13 +4361,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.0422</v>
+        <v>0.0425</v>
       </c>
       <c r="C231">
         <v>0.0052</v>
       </c>
       <c r="D231">
-        <v>0.037</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4375,13 +4375,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.0458</v>
+        <v>0.046</v>
       </c>
       <c r="C232">
         <v>0.0059</v>
       </c>
       <c r="D232">
-        <v>0.0399</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4389,13 +4389,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.0488</v>
+        <v>0.0491</v>
       </c>
       <c r="C233">
         <v>0.0064</v>
       </c>
       <c r="D233">
-        <v>0.0425</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4403,13 +4403,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.0517</v>
+        <v>0.0519</v>
       </c>
       <c r="C234">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="D234">
-        <v>0.0453</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4417,13 +4417,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.0554</v>
+        <v>0.0557</v>
       </c>
       <c r="C235">
         <v>0.0065</v>
       </c>
       <c r="D235">
-        <v>0.0489</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4431,13 +4431,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.0593</v>
+        <v>0.0596</v>
       </c>
       <c r="C236">
         <v>0.0067</v>
       </c>
       <c r="D236">
-        <v>0.0526</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4445,13 +4445,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.0638</v>
+        <v>0.0641</v>
       </c>
       <c r="C237">
         <v>0.0069</v>
       </c>
       <c r="D237">
-        <v>0.057</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4459,13 +4459,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.06900000000000001</v>
+        <v>0.0693</v>
       </c>
       <c r="C238">
         <v>0.0071</v>
       </c>
       <c r="D238">
-        <v>0.0619</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4473,13 +4473,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.0752</v>
+        <v>0.0755</v>
       </c>
       <c r="C239">
-        <v>0.0077</v>
+        <v>0.0078</v>
       </c>
       <c r="D239">
-        <v>0.0675</v>
+        <v>0.0678</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4487,13 +4487,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.0825</v>
+        <v>0.0828</v>
       </c>
       <c r="C240">
-        <v>0.008800000000000001</v>
+        <v>0.0089</v>
       </c>
       <c r="D240">
-        <v>0.0737</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4501,13 +4501,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.08989999999999999</v>
+        <v>0.0902</v>
       </c>
       <c r="C241">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
       <c r="D241">
-        <v>0.0799</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4515,13 +4515,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.0973</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="C242">
         <v>0.0111</v>
       </c>
       <c r="D242">
-        <v>0.0862</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4529,13 +4529,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.1042</v>
+        <v>0.1046</v>
       </c>
       <c r="C243">
         <v>0.012</v>
       </c>
       <c r="D243">
-        <v>0.0922</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4543,13 +4543,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.1117</v>
+        <v>0.112</v>
       </c>
       <c r="C244">
-        <v>0.013</v>
+        <v>0.0131</v>
       </c>
       <c r="D244">
-        <v>0.0987</v>
+        <v>0.0989</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4557,13 +4557,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1186</v>
+        <v>0.1189</v>
       </c>
       <c r="C245">
-        <v>0.0134</v>
+        <v>0.0135</v>
       </c>
       <c r="D245">
-        <v>0.1051</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4571,13 +4571,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.1242</v>
+        <v>0.1245</v>
       </c>
       <c r="C246">
         <v>0.013</v>
       </c>
       <c r="D246">
-        <v>0.1112</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4585,13 +4585,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.1309</v>
+        <v>0.1312</v>
       </c>
       <c r="C247">
         <v>0.0132</v>
       </c>
       <c r="D247">
-        <v>0.1177</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4599,13 +4599,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.1367</v>
+        <v>0.1371</v>
       </c>
       <c r="C248">
-        <v>0.0127</v>
+        <v>0.0128</v>
       </c>
       <c r="D248">
-        <v>0.124</v>
+        <v>0.1243</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4613,13 +4613,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.1425</v>
+        <v>0.1429</v>
       </c>
       <c r="C249">
         <v>0.0122</v>
       </c>
       <c r="D249">
-        <v>0.1303</v>
+        <v>0.1306</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4627,13 +4627,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.1486</v>
+        <v>0.1489</v>
       </c>
       <c r="C250">
-        <v>0.0118</v>
+        <v>0.0119</v>
       </c>
       <c r="D250">
-        <v>0.1367</v>
+        <v>0.137</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2014 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2014 - Diaria.xlsx
@@ -1155,13 +1155,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3135</v>
+        <v>0.3123</v>
       </c>
       <c r="C2">
-        <v>0.0233</v>
+        <v>0.0232</v>
       </c>
       <c r="D2">
-        <v>0.2903</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1169,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3147</v>
+        <v>0.3135</v>
       </c>
       <c r="C3">
-        <v>0.0229</v>
+        <v>0.0228</v>
       </c>
       <c r="D3">
-        <v>0.2918</v>
+        <v>0.2907</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3158</v>
+        <v>0.3146</v>
       </c>
       <c r="C4">
-        <v>0.0225</v>
+        <v>0.0224</v>
       </c>
       <c r="D4">
-        <v>0.2933</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1197,13 +1197,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3175</v>
+        <v>0.3163</v>
       </c>
       <c r="C5">
-        <v>0.0222</v>
+        <v>0.0221</v>
       </c>
       <c r="D5">
-        <v>0.2953</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3196</v>
+        <v>0.3185</v>
       </c>
       <c r="C6">
-        <v>0.0222</v>
+        <v>0.0221</v>
       </c>
       <c r="D6">
-        <v>0.2974</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1225,13 +1225,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3214</v>
+        <v>0.3202</v>
       </c>
       <c r="C7">
-        <v>0.0219</v>
+        <v>0.0218</v>
       </c>
       <c r="D7">
-        <v>0.2995</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1239,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3231</v>
+        <v>0.322</v>
       </c>
       <c r="C8">
-        <v>0.0214</v>
+        <v>0.0213</v>
       </c>
       <c r="D8">
-        <v>0.3017</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1253,13 +1253,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3242</v>
+        <v>0.3231</v>
       </c>
       <c r="C9">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
       <c r="D9">
-        <v>0.3034</v>
+        <v>0.3024</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1267,13 +1267,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3254</v>
+        <v>0.3243</v>
       </c>
       <c r="C10">
         <v>0.0203</v>
       </c>
       <c r="D10">
-        <v>0.305</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1281,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3262</v>
+        <v>0.3252</v>
       </c>
       <c r="C11">
-        <v>0.0199</v>
+        <v>0.0198</v>
       </c>
       <c r="D11">
-        <v>0.3064</v>
+        <v>0.3054</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1295,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3274</v>
+        <v>0.3264</v>
       </c>
       <c r="C12">
         <v>0.0199</v>
       </c>
       <c r="D12">
-        <v>0.3074</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1309,13 +1309,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3285</v>
+        <v>0.3276</v>
       </c>
       <c r="C13">
-        <v>0.0198</v>
+        <v>0.0197</v>
       </c>
       <c r="D13">
-        <v>0.3087</v>
+        <v>0.3078</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1323,13 +1323,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3312</v>
+        <v>0.3302</v>
       </c>
       <c r="C14">
-        <v>0.021</v>
+        <v>0.0209</v>
       </c>
       <c r="D14">
-        <v>0.3102</v>
+        <v>0.3094</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3337</v>
+        <v>0.3328</v>
       </c>
       <c r="C15">
-        <v>0.0221</v>
+        <v>0.022</v>
       </c>
       <c r="D15">
-        <v>0.3116</v>
+        <v>0.3108</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1351,13 +1351,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3359</v>
+        <v>0.335</v>
       </c>
       <c r="C16">
-        <v>0.023</v>
+        <v>0.0229</v>
       </c>
       <c r="D16">
-        <v>0.3129</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1365,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3385</v>
+        <v>0.3377</v>
       </c>
       <c r="C17">
-        <v>0.0245</v>
+        <v>0.0244</v>
       </c>
       <c r="D17">
-        <v>0.3141</v>
+        <v>0.3133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1379,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3416</v>
+        <v>0.3407</v>
       </c>
       <c r="C18">
-        <v>0.0265</v>
+        <v>0.0264</v>
       </c>
       <c r="D18">
-        <v>0.3151</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1393,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3449</v>
+        <v>0.3441</v>
       </c>
       <c r="C19">
-        <v>0.029</v>
+        <v>0.0289</v>
       </c>
       <c r="D19">
-        <v>0.3158</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1407,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3469</v>
+        <v>0.3462</v>
       </c>
       <c r="C20">
-        <v>0.031</v>
+        <v>0.0309</v>
       </c>
       <c r="D20">
-        <v>0.3159</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1421,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3479</v>
+        <v>0.3471</v>
       </c>
       <c r="C21">
-        <v>0.0324</v>
+        <v>0.0323</v>
       </c>
       <c r="D21">
-        <v>0.3155</v>
+        <v>0.3148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3481</v>
+        <v>0.3474</v>
       </c>
       <c r="C22">
-        <v>0.0335</v>
+        <v>0.0334</v>
       </c>
       <c r="D22">
-        <v>0.3146</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1449,13 +1449,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3482</v>
+        <v>0.3475</v>
       </c>
       <c r="C23">
-        <v>0.0346</v>
+        <v>0.0345</v>
       </c>
       <c r="D23">
-        <v>0.3136</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1463,13 +1463,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3497</v>
+        <v>0.3489</v>
       </c>
       <c r="C24">
-        <v>0.0365</v>
+        <v>0.0364</v>
       </c>
       <c r="D24">
-        <v>0.3132</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1477,13 +1477,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3517</v>
+        <v>0.3509</v>
       </c>
       <c r="C25">
-        <v>0.0387</v>
+        <v>0.0385</v>
       </c>
       <c r="D25">
-        <v>0.313</v>
+        <v>0.3124</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1491,13 +1491,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3541</v>
+        <v>0.3534</v>
       </c>
       <c r="C26">
-        <v>0.041</v>
+        <v>0.0408</v>
       </c>
       <c r="D26">
-        <v>0.3131</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3573</v>
+        <v>0.3566</v>
       </c>
       <c r="C27">
-        <v>0.0437</v>
+        <v>0.0436</v>
       </c>
       <c r="D27">
-        <v>0.3136</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1519,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3605</v>
+        <v>0.3598</v>
       </c>
       <c r="C28">
-        <v>0.0463</v>
+        <v>0.0461</v>
       </c>
       <c r="D28">
-        <v>0.3142</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3633</v>
+        <v>0.3626</v>
       </c>
       <c r="C29">
-        <v>0.048</v>
+        <v>0.0479</v>
       </c>
       <c r="D29">
-        <v>0.3153</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3678</v>
+        <v>0.367</v>
       </c>
       <c r="C30">
-        <v>0.0508</v>
+        <v>0.0507</v>
       </c>
       <c r="D30">
-        <v>0.3169</v>
+        <v>0.3163</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3728</v>
+        <v>0.3721</v>
       </c>
       <c r="C31">
-        <v>0.0541</v>
+        <v>0.054</v>
       </c>
       <c r="D31">
-        <v>0.3187</v>
+        <v>0.3181</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3769</v>
+        <v>0.3761</v>
       </c>
       <c r="C32">
-        <v>0.0561</v>
+        <v>0.056</v>
       </c>
       <c r="D32">
-        <v>0.3208</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1589,13 +1589,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3814</v>
+        <v>0.3807</v>
       </c>
       <c r="C33">
-        <v>0.0585</v>
+        <v>0.0584</v>
       </c>
       <c r="D33">
-        <v>0.3228</v>
+        <v>0.3222</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3848</v>
+        <v>0.3841</v>
       </c>
       <c r="C34">
-        <v>0.0599</v>
+        <v>0.0598</v>
       </c>
       <c r="D34">
-        <v>0.325</v>
+        <v>0.3243</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1617,13 +1617,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3885</v>
+        <v>0.3878</v>
       </c>
       <c r="C35">
-        <v>0.0612</v>
+        <v>0.0611</v>
       </c>
       <c r="D35">
-        <v>0.3273</v>
+        <v>0.3267</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1631,13 +1631,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3917</v>
+        <v>0.391</v>
       </c>
       <c r="C36">
-        <v>0.0622</v>
+        <v>0.0621</v>
       </c>
       <c r="D36">
-        <v>0.3295</v>
+        <v>0.3289</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1645,13 +1645,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3948</v>
+        <v>0.3942</v>
       </c>
       <c r="C37">
-        <v>0.06320000000000001</v>
+        <v>0.0631</v>
       </c>
       <c r="D37">
-        <v>0.3317</v>
+        <v>0.3311</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1659,13 +1659,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3975</v>
+        <v>0.3968</v>
       </c>
       <c r="C38">
         <v>0.0635</v>
       </c>
       <c r="D38">
-        <v>0.3339</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1673,13 +1673,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3999</v>
+        <v>0.3993</v>
       </c>
       <c r="C39">
         <v>0.0639</v>
       </c>
       <c r="D39">
-        <v>0.3359</v>
+        <v>0.3354</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1687,13 +1687,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4029</v>
+        <v>0.4023</v>
       </c>
       <c r="C40">
-        <v>0.0648</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D40">
-        <v>0.3381</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1701,13 +1701,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.406</v>
+        <v>0.4054</v>
       </c>
       <c r="C41">
         <v>0.06560000000000001</v>
       </c>
       <c r="D41">
-        <v>0.3404</v>
+        <v>0.3399</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1715,13 +1715,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.409</v>
+        <v>0.4085</v>
       </c>
       <c r="C42">
         <v>0.0664</v>
       </c>
       <c r="D42">
-        <v>0.3425</v>
+        <v>0.3421</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1729,13 +1729,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4111</v>
+        <v>0.4107</v>
       </c>
       <c r="C43">
         <v>0.06660000000000001</v>
       </c>
       <c r="D43">
-        <v>0.3445</v>
+        <v>0.3441</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1743,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4125</v>
+        <v>0.4121</v>
       </c>
       <c r="C44">
         <v>0.0665</v>
       </c>
       <c r="D44">
-        <v>0.346</v>
+        <v>0.3457</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1757,13 +1757,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.413</v>
+        <v>0.4126</v>
       </c>
       <c r="C45">
         <v>0.066</v>
       </c>
       <c r="D45">
-        <v>0.3469</v>
+        <v>0.3466</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1771,13 +1771,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4127</v>
+        <v>0.4124</v>
       </c>
       <c r="C46">
         <v>0.0654</v>
       </c>
       <c r="D46">
-        <v>0.3473</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1785,13 +1785,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4118</v>
+        <v>0.4116</v>
       </c>
       <c r="C47">
         <v>0.06469999999999999</v>
       </c>
       <c r="D47">
-        <v>0.3471</v>
+        <v>0.3469</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1799,13 +1799,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4109</v>
+        <v>0.4107</v>
       </c>
       <c r="C48">
         <v>0.0645</v>
       </c>
       <c r="D48">
-        <v>0.3465</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1813,13 +1813,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4115</v>
+        <v>0.4113</v>
       </c>
       <c r="C49">
         <v>0.0659</v>
       </c>
       <c r="D49">
-        <v>0.3456</v>
+        <v>0.3454</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1827,13 +1827,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="C50">
         <v>0.06660000000000001</v>
       </c>
       <c r="D50">
-        <v>0.3446</v>
+        <v>0.3444</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1841,13 +1841,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4106</v>
+        <v>0.4104</v>
       </c>
       <c r="C51">
         <v>0.06710000000000001</v>
       </c>
       <c r="D51">
-        <v>0.3435</v>
+        <v>0.3433</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1855,13 +1855,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4099</v>
+        <v>0.4097</v>
       </c>
       <c r="C52">
         <v>0.068</v>
       </c>
       <c r="D52">
-        <v>0.3419</v>
+        <v>0.3417</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1869,13 +1869,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4085</v>
+        <v>0.4084</v>
       </c>
       <c r="C53">
         <v>0.06900000000000001</v>
       </c>
       <c r="D53">
-        <v>0.3395</v>
+        <v>0.3394</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1883,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4071</v>
+        <v>0.407</v>
       </c>
       <c r="C54">
         <v>0.0701</v>
       </c>
       <c r="D54">
-        <v>0.337</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1897,13 +1897,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4052</v>
+        <v>0.4051</v>
       </c>
       <c r="C55">
         <v>0.07140000000000001</v>
       </c>
       <c r="D55">
-        <v>0.3338</v>
+        <v>0.3337</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1925,13 +1925,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4008</v>
+        <v>0.4007</v>
       </c>
       <c r="C57">
         <v>0.0738</v>
       </c>
       <c r="D57">
-        <v>0.327</v>
+        <v>0.3269</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,7 +1945,7 @@
         <v>0.0743</v>
       </c>
       <c r="D58">
-        <v>0.3231</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1973,7 +1973,7 @@
         <v>0.0745</v>
       </c>
       <c r="D60">
-        <v>0.3142</v>
+        <v>0.3141</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,7 +1987,7 @@
         <v>0.0747</v>
       </c>
       <c r="D61">
-        <v>0.3091</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>0.3675</v>
       </c>
       <c r="C64">
-        <v>0.07539999999999999</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D64">
         <v>0.2922</v>
@@ -2043,7 +2043,7 @@
         <v>0.0755</v>
       </c>
       <c r="D65">
-        <v>0.2861</v>
+        <v>0.2862</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2068,7 +2068,7 @@
         <v>0.3501</v>
       </c>
       <c r="C67">
-        <v>0.0757</v>
+        <v>0.0756</v>
       </c>
       <c r="D67">
         <v>0.2744</v>
@@ -2127,7 +2127,7 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="D71">
-        <v>0.2532</v>
+        <v>0.2531</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2135,7 +2135,7 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.317</v>
+        <v>0.3169</v>
       </c>
       <c r="C72">
         <v>0.06859999999999999</v>
@@ -2149,7 +2149,7 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.312</v>
+        <v>0.3119</v>
       </c>
       <c r="C73">
         <v>0.0675</v>
@@ -2163,7 +2163,7 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.307</v>
+        <v>0.3069</v>
       </c>
       <c r="C74">
         <v>0.0663</v>
@@ -2177,13 +2177,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3018</v>
+        <v>0.3017</v>
       </c>
       <c r="C75">
         <v>0.0644</v>
       </c>
       <c r="D75">
-        <v>0.2374</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2191,13 +2191,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2968</v>
+        <v>0.2967</v>
       </c>
       <c r="C76">
         <v>0.0623</v>
       </c>
       <c r="D76">
-        <v>0.2345</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2205,13 +2205,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.293</v>
+        <v>0.2929</v>
       </c>
       <c r="C77">
         <v>0.0609</v>
       </c>
       <c r="D77">
-        <v>0.2321</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2219,13 +2219,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.2903</v>
+        <v>0.2902</v>
       </c>
       <c r="C78">
         <v>0.06</v>
       </c>
       <c r="D78">
-        <v>0.2303</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2233,13 +2233,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2876</v>
+        <v>0.2875</v>
       </c>
       <c r="C79">
         <v>0.0586</v>
       </c>
       <c r="D79">
-        <v>0.229</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2247,13 +2247,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2861</v>
+        <v>0.2859</v>
       </c>
       <c r="C80">
         <v>0.0576</v>
       </c>
       <c r="D80">
-        <v>0.2285</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2261,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2844</v>
+        <v>0.2842</v>
       </c>
       <c r="C81">
         <v>0.056</v>
       </c>
       <c r="D81">
-        <v>0.2283</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2275,13 +2275,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2829</v>
+        <v>0.2828</v>
       </c>
       <c r="C82">
-        <v>0.0544</v>
+        <v>0.0543</v>
       </c>
       <c r="D82">
-        <v>0.2286</v>
+        <v>0.2284</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2289,13 +2289,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2821</v>
+        <v>0.2819</v>
       </c>
       <c r="C83">
         <v>0.0528</v>
       </c>
       <c r="D83">
-        <v>0.2293</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2303,13 +2303,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2816</v>
+        <v>0.2814</v>
       </c>
       <c r="C84">
         <v>0.0513</v>
       </c>
       <c r="D84">
-        <v>0.2303</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2317,13 +2317,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2809</v>
+        <v>0.2807</v>
       </c>
       <c r="C85">
         <v>0.0496</v>
       </c>
       <c r="D85">
-        <v>0.2313</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2803</v>
+        <v>0.2802</v>
       </c>
       <c r="C86">
-        <v>0.0478</v>
+        <v>0.0477</v>
       </c>
       <c r="D86">
-        <v>0.2326</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2345,13 +2345,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2801</v>
+        <v>0.28</v>
       </c>
       <c r="C87">
-        <v>0.0464</v>
+        <v>0.0463</v>
       </c>
       <c r="D87">
-        <v>0.2338</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.2803</v>
+        <v>0.2801</v>
       </c>
       <c r="C88">
         <v>0.0452</v>
       </c>
       <c r="D88">
-        <v>0.2351</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2373,13 +2373,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2801</v>
+        <v>0.28</v>
       </c>
       <c r="C89">
         <v>0.0438</v>
       </c>
       <c r="D89">
-        <v>0.2363</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2387,13 +2387,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2806</v>
+        <v>0.2804</v>
       </c>
       <c r="C90">
         <v>0.0428</v>
       </c>
       <c r="D90">
-        <v>0.2377</v>
+        <v>0.2376</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2401,13 +2401,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2815</v>
+        <v>0.2813</v>
       </c>
       <c r="C91">
         <v>0.0424</v>
       </c>
       <c r="D91">
-        <v>0.2391</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2415,13 +2415,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.282</v>
+        <v>0.2819</v>
       </c>
       <c r="C92">
         <v>0.0419</v>
       </c>
       <c r="D92">
-        <v>0.2401</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2429,13 +2429,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2813</v>
+        <v>0.2811</v>
       </c>
       <c r="C93">
         <v>0.0406</v>
       </c>
       <c r="D93">
-        <v>0.2407</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2443,13 +2443,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2806</v>
+        <v>0.2804</v>
       </c>
       <c r="C94">
         <v>0.0394</v>
       </c>
       <c r="D94">
-        <v>0.2412</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2457,13 +2457,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2804</v>
+        <v>0.2803</v>
       </c>
       <c r="C95">
         <v>0.0391</v>
       </c>
       <c r="D95">
-        <v>0.2413</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2471,13 +2471,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2796</v>
+        <v>0.2794</v>
       </c>
       <c r="C96">
         <v>0.0383</v>
       </c>
       <c r="D96">
-        <v>0.2413</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2485,13 +2485,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2781</v>
+        <v>0.2779</v>
       </c>
       <c r="C97">
         <v>0.0372</v>
       </c>
       <c r="D97">
-        <v>0.2409</v>
+        <v>0.2407</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2499,13 +2499,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2762</v>
+        <v>0.276</v>
       </c>
       <c r="C98">
         <v>0.036</v>
       </c>
       <c r="D98">
-        <v>0.2402</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2744</v>
+        <v>0.2741</v>
       </c>
       <c r="C99">
         <v>0.0352</v>
       </c>
       <c r="D99">
-        <v>0.2391</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2527,13 +2527,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.272</v>
+        <v>0.2718</v>
       </c>
       <c r="C100">
         <v>0.0343</v>
       </c>
       <c r="D100">
-        <v>0.2378</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2541,13 +2541,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2696</v>
+        <v>0.2693</v>
       </c>
       <c r="C101">
         <v>0.0334</v>
       </c>
       <c r="D101">
-        <v>0.2362</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2677</v>
+        <v>0.2674</v>
       </c>
       <c r="C102">
         <v>0.0329</v>
       </c>
       <c r="D102">
-        <v>0.2349</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2658</v>
+        <v>0.2654</v>
       </c>
       <c r="C103">
         <v>0.0324</v>
       </c>
       <c r="D103">
-        <v>0.2334</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2583,13 +2583,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.264</v>
+        <v>0.2636</v>
       </c>
       <c r="C104">
         <v>0.032</v>
       </c>
       <c r="D104">
-        <v>0.232</v>
+        <v>0.2315</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2597,13 +2597,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2627</v>
+        <v>0.2622</v>
       </c>
       <c r="C105">
         <v>0.032</v>
       </c>
       <c r="D105">
-        <v>0.2307</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2611,13 +2611,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2616</v>
+        <v>0.2611</v>
       </c>
       <c r="C106">
         <v>0.0322</v>
       </c>
       <c r="D106">
-        <v>0.2295</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2625,13 +2625,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2602</v>
+        <v>0.2596</v>
       </c>
       <c r="C107">
         <v>0.032</v>
       </c>
       <c r="D107">
-        <v>0.2282</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2639,13 +2639,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2584</v>
+        <v>0.2578</v>
       </c>
       <c r="C108">
         <v>0.0316</v>
       </c>
       <c r="D108">
-        <v>0.2268</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2653,13 +2653,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2571</v>
+        <v>0.2564</v>
       </c>
       <c r="C109">
         <v>0.0314</v>
       </c>
       <c r="D109">
-        <v>0.2257</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2667,13 +2667,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2566</v>
+        <v>0.2558</v>
       </c>
       <c r="C110">
         <v>0.0315</v>
       </c>
       <c r="D110">
-        <v>0.225</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2681,13 +2681,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2559</v>
+        <v>0.2551</v>
       </c>
       <c r="C111">
         <v>0.0313</v>
       </c>
       <c r="D111">
-        <v>0.2247</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2695,13 +2695,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2552</v>
+        <v>0.2543</v>
       </c>
       <c r="C112">
         <v>0.0305</v>
       </c>
       <c r="D112">
-        <v>0.2247</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2709,13 +2709,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2545</v>
+        <v>0.2536</v>
       </c>
       <c r="C113">
         <v>0.0294</v>
       </c>
       <c r="D113">
-        <v>0.2251</v>
+        <v>0.2241</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2723,13 +2723,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.254</v>
+        <v>0.2531</v>
       </c>
       <c r="C114">
-        <v>0.028</v>
+        <v>0.0281</v>
       </c>
       <c r="D114">
-        <v>0.226</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2737,13 +2737,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2543</v>
+        <v>0.2533</v>
       </c>
       <c r="C115">
         <v>0.0268</v>
       </c>
       <c r="D115">
-        <v>0.2275</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2552</v>
+        <v>0.2542</v>
       </c>
       <c r="C116">
         <v>0.0257</v>
       </c>
       <c r="D116">
-        <v>0.2295</v>
+        <v>0.2284</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2765,13 +2765,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2565</v>
+        <v>0.2554</v>
       </c>
       <c r="C117">
         <v>0.0246</v>
       </c>
       <c r="D117">
-        <v>0.2319</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2779,13 +2779,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2585</v>
+        <v>0.2573</v>
       </c>
       <c r="C118">
         <v>0.0238</v>
       </c>
       <c r="D118">
-        <v>0.2348</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2793,13 +2793,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2609</v>
+        <v>0.2597</v>
       </c>
       <c r="C119">
         <v>0.0228</v>
       </c>
       <c r="D119">
-        <v>0.2381</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2807,13 +2807,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2643</v>
+        <v>0.2631</v>
       </c>
       <c r="C120">
         <v>0.0225</v>
       </c>
       <c r="D120">
-        <v>0.2419</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2821,13 +2821,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2678</v>
+        <v>0.2665</v>
       </c>
       <c r="C121">
         <v>0.0218</v>
       </c>
       <c r="D121">
-        <v>0.246</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2835,13 +2835,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2716</v>
+        <v>0.2703</v>
       </c>
       <c r="C122">
         <v>0.0208</v>
       </c>
       <c r="D122">
-        <v>0.2508</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2849,13 +2849,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2765</v>
+        <v>0.2751</v>
       </c>
       <c r="C123">
         <v>0.0202</v>
       </c>
       <c r="D123">
-        <v>0.2563</v>
+        <v>0.2549</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2863,13 +2863,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2816</v>
+        <v>0.2803</v>
       </c>
       <c r="C124">
         <v>0.0195</v>
       </c>
       <c r="D124">
-        <v>0.2621</v>
+        <v>0.2607</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2877,13 +2877,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2864</v>
+        <v>0.285</v>
       </c>
       <c r="C125">
         <v>0.0184</v>
       </c>
       <c r="D125">
-        <v>0.268</v>
+        <v>0.2666</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2891,13 +2891,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2914</v>
+        <v>0.29</v>
       </c>
       <c r="C126">
         <v>0.0172</v>
       </c>
       <c r="D126">
-        <v>0.2742</v>
+        <v>0.2728</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2905,13 +2905,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2964</v>
+        <v>0.295</v>
       </c>
       <c r="C127">
         <v>0.016</v>
       </c>
       <c r="D127">
-        <v>0.2804</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3011</v>
+        <v>0.2998</v>
       </c>
       <c r="C128">
         <v>0.0147</v>
       </c>
       <c r="D128">
-        <v>0.2864</v>
+        <v>0.2851</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2933,13 +2933,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3062</v>
+        <v>0.3048</v>
       </c>
       <c r="C129">
         <v>0.0137</v>
       </c>
       <c r="D129">
-        <v>0.2925</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2947,13 +2947,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3108</v>
+        <v>0.3094</v>
       </c>
       <c r="C130">
         <v>0.0126</v>
       </c>
       <c r="D130">
-        <v>0.2982</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2961,13 +2961,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3144</v>
+        <v>0.3131</v>
       </c>
       <c r="C131">
         <v>0.011</v>
       </c>
       <c r="D131">
-        <v>0.3034</v>
+        <v>0.3021</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2975,13 +2975,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3187</v>
+        <v>0.3174</v>
       </c>
       <c r="C132">
         <v>0.0103</v>
       </c>
       <c r="D132">
-        <v>0.3083</v>
+        <v>0.3071</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3241</v>
+        <v>0.3228</v>
       </c>
       <c r="C133">
         <v>0.0107</v>
       </c>
       <c r="D133">
-        <v>0.3134</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3289</v>
+        <v>0.3277</v>
       </c>
       <c r="C134">
-        <v>0.0111</v>
+        <v>0.011</v>
       </c>
       <c r="D134">
-        <v>0.3179</v>
+        <v>0.3166</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3333</v>
+        <v>0.3321</v>
       </c>
       <c r="C135">
-        <v>0.0115</v>
+        <v>0.0114</v>
       </c>
       <c r="D135">
-        <v>0.3219</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3368</v>
+        <v>0.3355</v>
       </c>
       <c r="C136">
         <v>0.0115</v>
       </c>
       <c r="D136">
-        <v>0.3252</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3404</v>
+        <v>0.3392</v>
       </c>
       <c r="C137">
-        <v>0.0121</v>
+        <v>0.012</v>
       </c>
       <c r="D137">
-        <v>0.3283</v>
+        <v>0.3272</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3428</v>
+        <v>0.3417</v>
       </c>
       <c r="C138">
         <v>0.0122</v>
       </c>
       <c r="D138">
-        <v>0.3307</v>
+        <v>0.3295</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3457</v>
+        <v>0.3446</v>
       </c>
       <c r="C139">
         <v>0.0131</v>
       </c>
       <c r="D139">
-        <v>0.3326</v>
+        <v>0.3315</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3478</v>
+        <v>0.3467</v>
       </c>
       <c r="C140">
-        <v>0.0135</v>
+        <v>0.0134</v>
       </c>
       <c r="D140">
-        <v>0.3344</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3499</v>
+        <v>0.3488</v>
       </c>
       <c r="C141">
-        <v>0.0139</v>
+        <v>0.0138</v>
       </c>
       <c r="D141">
-        <v>0.3361</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3508</v>
+        <v>0.3497</v>
       </c>
       <c r="C142">
-        <v>0.0138</v>
+        <v>0.0137</v>
       </c>
       <c r="D142">
-        <v>0.337</v>
+        <v>0.3359</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3515</v>
+        <v>0.3504</v>
       </c>
       <c r="C143">
         <v>0.0136</v>
       </c>
       <c r="D143">
-        <v>0.3379</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3521</v>
+        <v>0.3511</v>
       </c>
       <c r="C144">
-        <v>0.0137</v>
+        <v>0.0136</v>
       </c>
       <c r="D144">
-        <v>0.3385</v>
+        <v>0.3374</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3527</v>
+        <v>0.3516</v>
       </c>
       <c r="C145">
-        <v>0.0141</v>
+        <v>0.014</v>
       </c>
       <c r="D145">
-        <v>0.3386</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3171,13 +3171,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3523</v>
+        <v>0.3513</v>
       </c>
       <c r="C146">
-        <v>0.0144</v>
+        <v>0.0143</v>
       </c>
       <c r="D146">
-        <v>0.3379</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3528</v>
+        <v>0.3518</v>
       </c>
       <c r="C147">
-        <v>0.0149</v>
+        <v>0.0148</v>
       </c>
       <c r="D147">
-        <v>0.3379</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="C148">
-        <v>0.0154</v>
+        <v>0.0153</v>
       </c>
       <c r="D148">
-        <v>0.3386</v>
+        <v>0.3376</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3545</v>
+        <v>0.3534</v>
       </c>
       <c r="C149">
-        <v>0.0157</v>
+        <v>0.0156</v>
       </c>
       <c r="D149">
-        <v>0.3388</v>
+        <v>0.3378</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3545</v>
+        <v>0.3535</v>
       </c>
       <c r="C150">
-        <v>0.0161</v>
+        <v>0.016</v>
       </c>
       <c r="D150">
-        <v>0.3384</v>
+        <v>0.3375</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3546</v>
+        <v>0.3537</v>
       </c>
       <c r="C151">
-        <v>0.017</v>
+        <v>0.0169</v>
       </c>
       <c r="D151">
-        <v>0.3376</v>
+        <v>0.3368</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3544</v>
+        <v>0.3535</v>
       </c>
       <c r="C152">
         <v>0.0173</v>
       </c>
       <c r="D152">
-        <v>0.3371</v>
+        <v>0.3362</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.3526</v>
+        <v>0.3518</v>
       </c>
       <c r="C153">
-        <v>0.0169</v>
+        <v>0.0168</v>
       </c>
       <c r="D153">
-        <v>0.3357</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.354</v>
+        <v>0.3531</v>
       </c>
       <c r="C154">
-        <v>0.0175</v>
+        <v>0.0174</v>
       </c>
       <c r="D154">
-        <v>0.3365</v>
+        <v>0.3357</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.3545</v>
+        <v>0.3536</v>
       </c>
       <c r="C155">
-        <v>0.0177</v>
+        <v>0.0176</v>
       </c>
       <c r="D155">
-        <v>0.3368</v>
+        <v>0.3361</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.3551</v>
+        <v>0.3543</v>
       </c>
       <c r="C156">
-        <v>0.0179</v>
+        <v>0.0178</v>
       </c>
       <c r="D156">
-        <v>0.3372</v>
+        <v>0.3365</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.3552</v>
+        <v>0.3544</v>
       </c>
       <c r="C157">
         <v>0.0179</v>
       </c>
       <c r="D157">
-        <v>0.3372</v>
+        <v>0.3366</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.3549</v>
+        <v>0.3542</v>
       </c>
       <c r="C158">
-        <v>0.0176</v>
+        <v>0.0175</v>
       </c>
       <c r="D158">
-        <v>0.3373</v>
+        <v>0.3367</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.3529</v>
+        <v>0.3523</v>
       </c>
       <c r="C159">
-        <v>0.0159</v>
+        <v>0.0158</v>
       </c>
       <c r="D159">
-        <v>0.337</v>
+        <v>0.3365</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.3508</v>
+        <v>0.3503</v>
       </c>
       <c r="C160">
-        <v>0.0144</v>
+        <v>0.0143</v>
       </c>
       <c r="D160">
-        <v>0.3365</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.3487</v>
+        <v>0.3482</v>
       </c>
       <c r="C161">
-        <v>0.0133</v>
+        <v>0.0132</v>
       </c>
       <c r="D161">
-        <v>0.3354</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.3469</v>
+        <v>0.3466</v>
       </c>
       <c r="C162">
         <v>0.0128</v>
       </c>
       <c r="D162">
-        <v>0.3341</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.3446</v>
+        <v>0.3443</v>
       </c>
       <c r="C163">
         <v>0.0127</v>
       </c>
       <c r="D163">
-        <v>0.3319</v>
+        <v>0.3317</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.3418</v>
+        <v>0.3415</v>
       </c>
       <c r="C164">
-        <v>0.0124</v>
+        <v>0.0123</v>
       </c>
       <c r="D164">
-        <v>0.3294</v>
+        <v>0.3292</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3437,13 +3437,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.3389</v>
+        <v>0.3387</v>
       </c>
       <c r="C165">
         <v>0.012</v>
       </c>
       <c r="D165">
-        <v>0.3268</v>
+        <v>0.3267</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3451,7 +3451,7 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.336</v>
+        <v>0.3359</v>
       </c>
       <c r="C166">
         <v>0.0116</v>
@@ -3465,7 +3465,7 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.3324</v>
+        <v>0.3323</v>
       </c>
       <c r="C167">
         <v>0.0112</v>
@@ -3482,10 +3482,10 @@
         <v>0.3281</v>
       </c>
       <c r="C168">
-        <v>0.0115</v>
+        <v>0.0114</v>
       </c>
       <c r="D168">
-        <v>0.3166</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,7 +3499,7 @@
         <v>0.0118</v>
       </c>
       <c r="D169">
-        <v>0.312</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.3202</v>
+        <v>0.3203</v>
       </c>
       <c r="C170">
         <v>0.0127</v>
       </c>
       <c r="D170">
-        <v>0.3075</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.3156</v>
+        <v>0.3157</v>
       </c>
       <c r="C171">
         <v>0.0127</v>
       </c>
       <c r="D171">
-        <v>0.3028</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.3118</v>
+        <v>0.312</v>
       </c>
       <c r="C172">
-        <v>0.0134</v>
+        <v>0.0133</v>
       </c>
       <c r="D172">
-        <v>0.2985</v>
+        <v>0.2987</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.3077</v>
+        <v>0.3079</v>
       </c>
       <c r="C173">
-        <v>0.0139</v>
+        <v>0.0138</v>
       </c>
       <c r="D173">
-        <v>0.2938</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.3029</v>
+        <v>0.303</v>
       </c>
       <c r="C174">
         <v>0.0137</v>
       </c>
       <c r="D174">
-        <v>0.2891</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2975</v>
+        <v>0.2977</v>
       </c>
       <c r="C175">
         <v>0.0135</v>
       </c>
       <c r="D175">
-        <v>0.284</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3591,13 +3591,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2921</v>
+        <v>0.2922</v>
       </c>
       <c r="C176">
         <v>0.0137</v>
       </c>
       <c r="D176">
-        <v>0.2784</v>
+        <v>0.2785</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2861</v>
+        <v>0.2863</v>
       </c>
       <c r="C177">
-        <v>0.0139</v>
+        <v>0.0138</v>
       </c>
       <c r="D177">
-        <v>0.2723</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2793</v>
+        <v>0.2794</v>
       </c>
       <c r="C178">
         <v>0.0137</v>
       </c>
       <c r="D178">
-        <v>0.2656</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3633,13 +3633,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2743</v>
+        <v>0.2744</v>
       </c>
       <c r="C179">
         <v>0.0148</v>
       </c>
       <c r="D179">
-        <v>0.2595</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3647,13 +3647,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2694</v>
+        <v>0.2695</v>
       </c>
       <c r="C180">
-        <v>0.0163</v>
+        <v>0.0162</v>
       </c>
       <c r="D180">
-        <v>0.2532</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3678,7 +3678,7 @@
         <v>0.2593</v>
       </c>
       <c r="C182">
-        <v>0.0195</v>
+        <v>0.0194</v>
       </c>
       <c r="D182">
         <v>0.2398</v>
@@ -3709,7 +3709,7 @@
         <v>0.0222</v>
       </c>
       <c r="D184">
-        <v>0.2255</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3737,7 +3737,7 @@
         <v>0.025</v>
       </c>
       <c r="D186">
-        <v>0.2101</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3762,10 +3762,10 @@
         <v>0.2206</v>
       </c>
       <c r="C188">
-        <v>0.0269</v>
+        <v>0.027</v>
       </c>
       <c r="D188">
-        <v>0.1937</v>
+        <v>0.1936</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3776,10 +3776,10 @@
         <v>0.2128</v>
       </c>
       <c r="C189">
-        <v>0.0273</v>
+        <v>0.0274</v>
       </c>
       <c r="D189">
-        <v>0.1855</v>
+        <v>0.1854</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3787,7 +3787,7 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2039</v>
+        <v>0.2038</v>
       </c>
       <c r="C190">
         <v>0.0268</v>
@@ -3801,13 +3801,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.196</v>
+        <v>0.1959</v>
       </c>
       <c r="C191">
-        <v>0.027</v>
+        <v>0.0271</v>
       </c>
       <c r="D191">
-        <v>0.169</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3818,10 +3818,10 @@
         <v>0.186</v>
       </c>
       <c r="C192">
-        <v>0.0263</v>
+        <v>0.0264</v>
       </c>
       <c r="D192">
-        <v>0.1597</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3832,7 +3832,7 @@
         <v>0.1764</v>
       </c>
       <c r="C193">
-        <v>0.0258</v>
+        <v>0.0259</v>
       </c>
       <c r="D193">
         <v>0.1506</v>
@@ -3843,10 +3843,10 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.1644</v>
+        <v>0.1645</v>
       </c>
       <c r="C194">
-        <v>0.025</v>
+        <v>0.0251</v>
       </c>
       <c r="D194">
         <v>0.1394</v>
@@ -3857,13 +3857,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.1531</v>
+        <v>0.1532</v>
       </c>
       <c r="C195">
-        <v>0.0243</v>
+        <v>0.0244</v>
       </c>
       <c r="D195">
-        <v>0.1287</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3871,13 +3871,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.1434</v>
+        <v>0.1435</v>
       </c>
       <c r="C196">
-        <v>0.0238</v>
+        <v>0.0239</v>
       </c>
       <c r="D196">
-        <v>0.1195</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3885,10 +3885,10 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1339</v>
+        <v>0.1341</v>
       </c>
       <c r="C197">
-        <v>0.0231</v>
+        <v>0.0232</v>
       </c>
       <c r="D197">
         <v>0.1108</v>
@@ -3899,10 +3899,10 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1258</v>
+        <v>0.126</v>
       </c>
       <c r="C198">
-        <v>0.0232</v>
+        <v>0.0233</v>
       </c>
       <c r="D198">
         <v>0.1027</v>
@@ -3913,10 +3913,10 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1186</v>
+        <v>0.1187</v>
       </c>
       <c r="C199">
-        <v>0.0229</v>
+        <v>0.023</v>
       </c>
       <c r="D199">
         <v>0.09569999999999999</v>
@@ -3927,13 +3927,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.1111</v>
+        <v>0.1112</v>
       </c>
       <c r="C200">
-        <v>0.0221</v>
+        <v>0.0222</v>
       </c>
       <c r="D200">
-        <v>0.08890000000000001</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3941,10 +3941,10 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.1053</v>
+        <v>0.1054</v>
       </c>
       <c r="C201">
-        <v>0.0219</v>
+        <v>0.022</v>
       </c>
       <c r="D201">
         <v>0.0834</v>
@@ -3955,13 +3955,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.0982</v>
+        <v>0.0983</v>
       </c>
       <c r="C202">
-        <v>0.0203</v>
+        <v>0.0204</v>
       </c>
       <c r="D202">
-        <v>0.0779</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3972,7 +3972,7 @@
         <v>0.0921</v>
       </c>
       <c r="C203">
-        <v>0.0194</v>
+        <v>0.0195</v>
       </c>
       <c r="D203">
         <v>0.0727</v>
@@ -3986,7 +3986,7 @@
         <v>0.0861</v>
       </c>
       <c r="C204">
-        <v>0.0182</v>
+        <v>0.0183</v>
       </c>
       <c r="D204">
         <v>0.0679</v>
@@ -4000,7 +4000,7 @@
         <v>0.0809</v>
       </c>
       <c r="C205">
-        <v>0.0173</v>
+        <v>0.0174</v>
       </c>
       <c r="D205">
         <v>0.0635</v>
@@ -4014,10 +4014,10 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="C206">
-        <v>0.016</v>
+        <v>0.0161</v>
       </c>
       <c r="D206">
-        <v>0.0593</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4028,10 +4028,10 @@
         <v>0.0702</v>
       </c>
       <c r="C207">
-        <v>0.0147</v>
+        <v>0.0148</v>
       </c>
       <c r="D207">
-        <v>0.0555</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4039,13 +4039,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.06510000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="C208">
-        <v>0.0134</v>
+        <v>0.0135</v>
       </c>
       <c r="D208">
-        <v>0.0516</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4053,13 +4053,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.0605</v>
+        <v>0.0604</v>
       </c>
       <c r="C209">
-        <v>0.0122</v>
+        <v>0.0123</v>
       </c>
       <c r="D209">
-        <v>0.0483</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,7 +4073,7 @@
         <v>0.0118</v>
       </c>
       <c r="D210">
-        <v>0.0459</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4081,13 +4081,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.0536</v>
+        <v>0.0535</v>
       </c>
       <c r="C211">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="D211">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4095,13 +4095,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.0515</v>
+        <v>0.0514</v>
       </c>
       <c r="C212">
         <v>0.0101</v>
       </c>
       <c r="D212">
-        <v>0.0414</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4109,13 +4109,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.0504</v>
+        <v>0.0503</v>
       </c>
       <c r="C213">
-        <v>0.0097</v>
+        <v>0.0098</v>
       </c>
       <c r="D213">
-        <v>0.0407</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4123,13 +4123,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.0498</v>
+        <v>0.0496</v>
       </c>
       <c r="C214">
-        <v>0.009599999999999999</v>
+        <v>0.0097</v>
       </c>
       <c r="D214">
-        <v>0.0401</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4137,13 +4137,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.0487</v>
+        <v>0.0486</v>
       </c>
       <c r="C215">
         <v>0.009299999999999999</v>
       </c>
       <c r="D215">
-        <v>0.0395</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4151,13 +4151,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.0473</v>
+        <v>0.0472</v>
       </c>
       <c r="C216">
         <v>0.008800000000000001</v>
       </c>
       <c r="D216">
-        <v>0.0386</v>
+        <v>0.0384</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4165,13 +4165,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.0463</v>
+        <v>0.0462</v>
       </c>
       <c r="C217">
         <v>0.008399999999999999</v>
       </c>
       <c r="D217">
-        <v>0.038</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4179,13 +4179,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.0455</v>
+        <v>0.0454</v>
       </c>
       <c r="C218">
-        <v>0.008</v>
+        <v>0.0081</v>
       </c>
       <c r="D218">
-        <v>0.0375</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,7 +4199,7 @@
         <v>0.0072</v>
       </c>
       <c r="D219">
-        <v>0.0356</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4235,13 +4235,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
       <c r="C222">
         <v>0.0052</v>
       </c>
       <c r="D222">
-        <v>0.0299</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4249,13 +4249,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.0337</v>
+        <v>0.0338</v>
       </c>
       <c r="C223">
         <v>0.0048</v>
       </c>
       <c r="D223">
-        <v>0.0289</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4263,10 +4263,10 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.032</v>
+        <v>0.0321</v>
       </c>
       <c r="C224">
-        <v>0.004</v>
+        <v>0.0041</v>
       </c>
       <c r="D224">
         <v>0.028</v>
@@ -4277,13 +4277,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.0313</v>
+        <v>0.0314</v>
       </c>
       <c r="C225">
         <v>0.0036</v>
       </c>
       <c r="D225">
-        <v>0.0277</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4305,7 +4305,7 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.0329</v>
+        <v>0.033</v>
       </c>
       <c r="C227">
         <v>0.0039</v>
@@ -4322,10 +4322,10 @@
         <v>0.0353</v>
       </c>
       <c r="C228">
-        <v>0.0045</v>
+        <v>0.0046</v>
       </c>
       <c r="D228">
-        <v>0.0307</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4336,7 +4336,7 @@
         <v>0.0376</v>
       </c>
       <c r="C229">
-        <v>0.0049</v>
+        <v>0.005</v>
       </c>
       <c r="D229">
         <v>0.0327</v>
@@ -4361,13 +4361,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.0425</v>
+        <v>0.0424</v>
       </c>
       <c r="C231">
         <v>0.0052</v>
       </c>
       <c r="D231">
-        <v>0.0373</v>
+        <v>0.0372</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4375,13 +4375,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.046</v>
+        <v>0.0459</v>
       </c>
       <c r="C232">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
       <c r="D232">
-        <v>0.0401</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4389,13 +4389,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.0491</v>
+        <v>0.049</v>
       </c>
       <c r="C233">
         <v>0.0064</v>
       </c>
       <c r="D233">
-        <v>0.0427</v>
+        <v>0.0426</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4403,13 +4403,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.0519</v>
+        <v>0.0518</v>
       </c>
       <c r="C234">
         <v>0.0064</v>
       </c>
       <c r="D234">
-        <v>0.0456</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4417,13 +4417,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.0557</v>
+        <v>0.0554</v>
       </c>
       <c r="C235">
         <v>0.0065</v>
       </c>
       <c r="D235">
-        <v>0.0492</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4431,13 +4431,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.0596</v>
+        <v>0.0593</v>
       </c>
       <c r="C236">
         <v>0.0067</v>
       </c>
       <c r="D236">
-        <v>0.0528</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4445,13 +4445,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.0641</v>
+        <v>0.0638</v>
       </c>
       <c r="C237">
         <v>0.0069</v>
       </c>
       <c r="D237">
-        <v>0.0572</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4459,13 +4459,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.0693</v>
+        <v>0.0689</v>
       </c>
       <c r="C238">
         <v>0.0071</v>
       </c>
       <c r="D238">
-        <v>0.0622</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4473,13 +4473,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.0755</v>
+        <v>0.0751</v>
       </c>
       <c r="C239">
         <v>0.0078</v>
       </c>
       <c r="D239">
-        <v>0.0678</v>
+        <v>0.0673</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4487,13 +4487,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.0828</v>
+        <v>0.0823</v>
       </c>
       <c r="C240">
         <v>0.0089</v>
       </c>
       <c r="D240">
-        <v>0.074</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4501,13 +4501,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.0902</v>
+        <v>0.0897</v>
       </c>
       <c r="C241">
         <v>0.0101</v>
       </c>
       <c r="D241">
-        <v>0.08019999999999999</v>
+        <v>0.0796</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4515,13 +4515,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.09760000000000001</v>
+        <v>0.097</v>
       </c>
       <c r="C242">
         <v>0.0111</v>
       </c>
       <c r="D242">
-        <v>0.0864</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4529,13 +4529,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.1046</v>
+        <v>0.1039</v>
       </c>
       <c r="C243">
         <v>0.012</v>
       </c>
       <c r="D243">
-        <v>0.0925</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4543,13 +4543,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.112</v>
+        <v>0.1113</v>
       </c>
       <c r="C244">
         <v>0.0131</v>
       </c>
       <c r="D244">
-        <v>0.0989</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4557,13 +4557,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.1189</v>
+        <v>0.1181</v>
       </c>
       <c r="C245">
         <v>0.0135</v>
       </c>
       <c r="D245">
-        <v>0.1054</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4571,13 +4571,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.1245</v>
+        <v>0.1237</v>
       </c>
       <c r="C246">
         <v>0.013</v>
       </c>
       <c r="D246">
-        <v>0.1115</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4585,13 +4585,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.1312</v>
+        <v>0.1303</v>
       </c>
       <c r="C247">
         <v>0.0132</v>
       </c>
       <c r="D247">
-        <v>0.118</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4599,13 +4599,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.1371</v>
+        <v>0.1361</v>
       </c>
       <c r="C248">
         <v>0.0128</v>
       </c>
       <c r="D248">
-        <v>0.1243</v>
+        <v>0.1234</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4613,13 +4613,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.1429</v>
+        <v>0.1419</v>
       </c>
       <c r="C249">
         <v>0.0122</v>
       </c>
       <c r="D249">
-        <v>0.1306</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4627,13 +4627,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.1489</v>
+        <v>0.1479</v>
       </c>
       <c r="C250">
         <v>0.0119</v>
       </c>
       <c r="D250">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
     </row>
   </sheetData>
